--- a/raw_data/20200818_saline/20200818_Sensor0_Test_27.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_27.xlsx
@@ -1,1022 +1,1438 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B35319-FBE5-408C-923B-D5EBB3F314D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>23402.868750</v>
+        <v>23402.868750000001</v>
       </c>
       <c r="B2" s="1">
-        <v>6.500797</v>
+        <v>6.5007970000000004</v>
       </c>
       <c r="C2" s="1">
-        <v>903.378000</v>
+        <v>903.37800000000004</v>
       </c>
       <c r="D2" s="1">
-        <v>-196.661000</v>
+        <v>-196.661</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>23413.584779</v>
+        <v>23413.584779000001</v>
       </c>
       <c r="G2" s="1">
-        <v>6.503774</v>
+        <v>6.5037739999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>920.078000</v>
+        <v>920.07799999999997</v>
       </c>
       <c r="I2" s="1">
-        <v>-166.548000</v>
+        <v>-166.548</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>23424.031555</v>
+        <v>23424.031555000001</v>
       </c>
       <c r="L2" s="1">
-        <v>6.506675</v>
+        <v>6.5066750000000004</v>
       </c>
       <c r="M2" s="1">
-        <v>942.054000</v>
+        <v>942.05399999999997</v>
       </c>
       <c r="N2" s="1">
-        <v>-119.121000</v>
+        <v>-119.121</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
         <v>23434.633007</v>
       </c>
       <c r="Q2" s="1">
-        <v>6.509620</v>
+        <v>6.50962</v>
       </c>
       <c r="R2" s="1">
-        <v>948.154000</v>
+        <v>948.154</v>
       </c>
       <c r="S2" s="1">
-        <v>-104.381000</v>
+        <v>-104.381</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
         <v>23444.825298</v>
       </c>
       <c r="V2" s="1">
-        <v>6.512451</v>
+        <v>6.5124510000000004</v>
       </c>
       <c r="W2" s="1">
-        <v>954.585000</v>
+        <v>954.58500000000004</v>
       </c>
       <c r="X2" s="1">
-        <v>-90.411200</v>
+        <v>-90.411199999999994</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>23454.976433</v>
       </c>
       <c r="AA2" s="1">
-        <v>6.515271</v>
+        <v>6.5152710000000003</v>
       </c>
       <c r="AB2" s="1">
-        <v>961.627000</v>
+        <v>961.62699999999995</v>
       </c>
       <c r="AC2" s="1">
-        <v>-80.552600</v>
+        <v>-80.552599999999998</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>23465.216822</v>
+        <v>23465.216821999999</v>
       </c>
       <c r="AF2" s="1">
         <v>6.518116</v>
       </c>
       <c r="AG2" s="1">
-        <v>966.565000</v>
+        <v>966.56500000000005</v>
       </c>
       <c r="AH2" s="1">
-        <v>-79.920800</v>
+        <v>-79.9208</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
         <v>23475.366457</v>
       </c>
       <c r="AK2" s="1">
-        <v>6.520935</v>
+        <v>6.5209349999999997</v>
       </c>
       <c r="AL2" s="1">
-        <v>974.453000</v>
+        <v>974.45299999999997</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.306200</v>
+        <v>-87.306200000000004</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>23485.919872</v>
+        <v>23485.919871999999</v>
       </c>
       <c r="AP2" s="1">
-        <v>6.523867</v>
+        <v>6.5238670000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>983.477000</v>
+        <v>983.47699999999998</v>
       </c>
       <c r="AR2" s="1">
-        <v>-102.192000</v>
+        <v>-102.19199999999999</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>23496.600684</v>
+        <v>23496.600684000001</v>
       </c>
       <c r="AU2" s="1">
         <v>6.526834</v>
       </c>
       <c r="AV2" s="1">
-        <v>994.727000</v>
+        <v>994.72699999999998</v>
       </c>
       <c r="AW2" s="1">
-        <v>-123.725000</v>
+        <v>-123.72499999999999</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>23507.722335</v>
+        <v>23507.722334999999</v>
       </c>
       <c r="AZ2" s="1">
-        <v>6.529923</v>
+        <v>6.5299230000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1004.250000</v>
+        <v>1004.25</v>
       </c>
       <c r="BB2" s="1">
-        <v>-142.448000</v>
+        <v>-142.44800000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>23519.023359</v>
+        <v>23519.023358999999</v>
       </c>
       <c r="BE2" s="1">
-        <v>6.533062</v>
+        <v>6.5330620000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1049.150000</v>
+        <v>1049.1500000000001</v>
       </c>
       <c r="BG2" s="1">
-        <v>-227.589000</v>
+        <v>-227.589</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>23530.075216</v>
+        <v>23530.075216000001</v>
       </c>
       <c r="BJ2" s="1">
-        <v>6.536132</v>
+        <v>6.5361320000000003</v>
       </c>
       <c r="BK2" s="1">
-        <v>1128.550000</v>
+        <v>1128.55</v>
       </c>
       <c r="BL2" s="1">
-        <v>-364.270000</v>
+        <v>-364.27</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>23541.185080</v>
+        <v>23541.185079999999</v>
       </c>
       <c r="BO2" s="1">
         <v>6.539218</v>
       </c>
       <c r="BP2" s="1">
-        <v>1260.380000</v>
+        <v>1260.3800000000001</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-575.112000</v>
+        <v>-575.11199999999997</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>23552.248866</v>
+        <v>23552.248866000002</v>
       </c>
       <c r="BT2" s="1">
-        <v>6.542291</v>
+        <v>6.5422909999999996</v>
       </c>
       <c r="BU2" s="1">
-        <v>1407.990000</v>
+        <v>1407.99</v>
       </c>
       <c r="BV2" s="1">
-        <v>-799.931000</v>
+        <v>-799.93100000000004</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>23563.048758</v>
+        <v>23563.048758000001</v>
       </c>
       <c r="BY2" s="1">
-        <v>6.545291</v>
+        <v>6.5452909999999997</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1570.620000</v>
+        <v>1570.62</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1034.610000</v>
+        <v>-1034.6099999999999</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>23573.951313</v>
+        <v>23573.951313000001</v>
       </c>
       <c r="CD2" s="1">
-        <v>6.548320</v>
+        <v>6.5483200000000004</v>
       </c>
       <c r="CE2" s="1">
-        <v>1979.870000</v>
+        <v>1979.87</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1581.900000</v>
+        <v>-1581.9</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>23403.571078</v>
+        <v>23403.571078000001</v>
       </c>
       <c r="B3" s="1">
-        <v>6.500992</v>
+        <v>6.5009920000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>903.247000</v>
+        <v>903.24699999999996</v>
       </c>
       <c r="D3" s="1">
-        <v>-196.566000</v>
+        <v>-196.566</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>23413.999929</v>
+        <v>23413.999929000001</v>
       </c>
       <c r="G3" s="1">
         <v>6.503889</v>
       </c>
       <c r="H3" s="1">
-        <v>920.086000</v>
+        <v>920.08600000000001</v>
       </c>
       <c r="I3" s="1">
-        <v>-166.743000</v>
+        <v>-166.74299999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <v>23424.484364</v>
       </c>
       <c r="L3" s="1">
-        <v>6.506801</v>
+        <v>6.5068010000000003</v>
       </c>
       <c r="M3" s="1">
-        <v>941.977000</v>
+        <v>941.97699999999998</v>
       </c>
       <c r="N3" s="1">
-        <v>-118.931000</v>
+        <v>-118.931</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>23434.985695</v>
+        <v>23434.985694999999</v>
       </c>
       <c r="Q3" s="1">
-        <v>6.509718</v>
+        <v>6.5097180000000003</v>
       </c>
       <c r="R3" s="1">
-        <v>948.155000</v>
+        <v>948.15499999999997</v>
       </c>
       <c r="S3" s="1">
-        <v>-104.344000</v>
+        <v>-104.34399999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>23445.210206</v>
       </c>
       <c r="V3" s="1">
-        <v>6.512558</v>
+        <v>6.5125580000000003</v>
       </c>
       <c r="W3" s="1">
-        <v>954.480000</v>
+        <v>954.48</v>
       </c>
       <c r="X3" s="1">
-        <v>-90.424400</v>
+        <v>-90.424400000000006</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
         <v>23455.360341</v>
       </c>
       <c r="AA3" s="1">
-        <v>6.515378</v>
+        <v>6.5153780000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>961.688000</v>
+        <v>961.68799999999999</v>
       </c>
       <c r="AC3" s="1">
-        <v>-80.558900</v>
+        <v>-80.558899999999994</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>23465.627013</v>
+        <v>23465.627013000001</v>
       </c>
       <c r="AF3" s="1">
-        <v>6.518230</v>
+        <v>6.51823</v>
       </c>
       <c r="AG3" s="1">
-        <v>966.493000</v>
+        <v>966.49300000000005</v>
       </c>
       <c r="AH3" s="1">
-        <v>-79.921400</v>
+        <v>-79.921400000000006</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
         <v>23475.821324</v>
       </c>
       <c r="AK3" s="1">
-        <v>6.521061</v>
+        <v>6.5210610000000004</v>
       </c>
       <c r="AL3" s="1">
-        <v>974.450000</v>
+        <v>974.45</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.305900</v>
+        <v>-87.305899999999994</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>23486.364746</v>
+        <v>23486.364745999999</v>
       </c>
       <c r="AP3" s="1">
-        <v>6.523990</v>
+        <v>6.5239900000000004</v>
       </c>
       <c r="AQ3" s="1">
-        <v>983.510000</v>
+        <v>983.51</v>
       </c>
       <c r="AR3" s="1">
-        <v>-102.163000</v>
+        <v>-102.163</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>23496.989548</v>
+        <v>23496.989548000001</v>
       </c>
       <c r="AU3" s="1">
         <v>6.526942</v>
       </c>
       <c r="AV3" s="1">
-        <v>994.728000</v>
+        <v>994.72799999999995</v>
       </c>
       <c r="AW3" s="1">
-        <v>-123.713000</v>
+        <v>-123.71299999999999</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>23508.082108</v>
+        <v>23508.082107999999</v>
       </c>
       <c r="AZ3" s="1">
-        <v>6.530023</v>
+        <v>6.5300229999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1004.260000</v>
+        <v>1004.26</v>
       </c>
       <c r="BB3" s="1">
-        <v>-142.484000</v>
+        <v>-142.48400000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>23519.394334</v>
+        <v>23519.394334000001</v>
       </c>
       <c r="BE3" s="1">
-        <v>6.533165</v>
+        <v>6.5331650000000003</v>
       </c>
       <c r="BF3" s="1">
-        <v>1049.170000</v>
+        <v>1049.17</v>
       </c>
       <c r="BG3" s="1">
-        <v>-227.563000</v>
+        <v>-227.56299999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>23530.827119</v>
+        <v>23530.827119000001</v>
       </c>
       <c r="BJ3" s="1">
-        <v>6.536341</v>
+        <v>6.5363410000000002</v>
       </c>
       <c r="BK3" s="1">
-        <v>1128.530000</v>
+        <v>1128.53</v>
       </c>
       <c r="BL3" s="1">
-        <v>-364.278000</v>
+        <v>-364.27800000000002</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>23541.599729</v>
+        <v>23541.599729000001</v>
       </c>
       <c r="BO3" s="1">
-        <v>6.539333</v>
+        <v>6.5393330000000001</v>
       </c>
       <c r="BP3" s="1">
-        <v>1260.410000</v>
+        <v>1260.4100000000001</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-575.144000</v>
+        <v>-575.14400000000001</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>23552.668947</v>
+        <v>23552.668946999998</v>
       </c>
       <c r="BT3" s="1">
         <v>6.542408</v>
       </c>
       <c r="BU3" s="1">
-        <v>1408.010000</v>
+        <v>1408.01</v>
       </c>
       <c r="BV3" s="1">
-        <v>-799.844000</v>
+        <v>-799.84400000000005</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>23563.509508</v>
+        <v>23563.509507999999</v>
       </c>
       <c r="BY3" s="1">
-        <v>6.545419</v>
+        <v>6.5454189999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1570.540000</v>
+        <v>1570.54</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1034.540000</v>
+        <v>-1034.54</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>23574.545494</v>
+        <v>23574.545494000002</v>
       </c>
       <c r="CD3" s="1">
-        <v>6.548485</v>
+        <v>6.5484850000000003</v>
       </c>
       <c r="CE3" s="1">
-        <v>1978.860000</v>
+        <v>1978.86</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1583.460000</v>
+        <v>-1583.46</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
         <v>23403.945527</v>
       </c>
       <c r="B4" s="1">
-        <v>6.501096</v>
+        <v>6.5010960000000004</v>
       </c>
       <c r="C4" s="1">
-        <v>903.297000</v>
+        <v>903.29700000000003</v>
       </c>
       <c r="D4" s="1">
-        <v>-196.560000</v>
+        <v>-196.56</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>23414.341673</v>
+        <v>23414.341672999999</v>
       </c>
       <c r="G4" s="1">
         <v>6.503984</v>
       </c>
       <c r="H4" s="1">
-        <v>920.220000</v>
+        <v>920.22</v>
       </c>
       <c r="I4" s="1">
-        <v>-166.156000</v>
+        <v>-166.15600000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
         <v>23424.796455</v>
@@ -1025,390 +1441,390 @@
         <v>6.506888</v>
       </c>
       <c r="M4" s="1">
-        <v>941.926000</v>
+        <v>941.92600000000004</v>
       </c>
       <c r="N4" s="1">
-        <v>-118.920000</v>
+        <v>-118.92</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>23435.331373</v>
+        <v>23435.331373000001</v>
       </c>
       <c r="Q4" s="1">
-        <v>6.509814</v>
+        <v>6.5098140000000004</v>
       </c>
       <c r="R4" s="1">
-        <v>948.204000</v>
+        <v>948.20399999999995</v>
       </c>
       <c r="S4" s="1">
-        <v>-104.400000</v>
+        <v>-104.4</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <v>23445.628815</v>
       </c>
       <c r="V4" s="1">
-        <v>6.512675</v>
+        <v>6.5126749999999998</v>
       </c>
       <c r="W4" s="1">
-        <v>954.501000</v>
+        <v>954.50099999999998</v>
       </c>
       <c r="X4" s="1">
-        <v>-90.346900</v>
+        <v>-90.346900000000005</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>23455.779970</v>
+        <v>23455.77997</v>
       </c>
       <c r="AA4" s="1">
-        <v>6.515494</v>
+        <v>6.5154940000000003</v>
       </c>
       <c r="AB4" s="1">
-        <v>961.600000</v>
+        <v>961.6</v>
       </c>
       <c r="AC4" s="1">
-        <v>-80.467800</v>
+        <v>-80.467799999999997</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>23465.977717</v>
+        <v>23465.977717000002</v>
       </c>
       <c r="AF4" s="1">
-        <v>6.518327</v>
+        <v>6.5183270000000002</v>
       </c>
       <c r="AG4" s="1">
-        <v>966.580000</v>
+        <v>966.58</v>
       </c>
       <c r="AH4" s="1">
-        <v>-79.986100</v>
+        <v>-79.986099999999993</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
         <v>23476.127333</v>
       </c>
       <c r="AK4" s="1">
-        <v>6.521146</v>
+        <v>6.5211459999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>974.462000</v>
+        <v>974.46199999999999</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.327600</v>
+        <v>-87.327600000000004</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
         <v>23486.724843</v>
       </c>
       <c r="AP4" s="1">
-        <v>6.524090</v>
+        <v>6.5240900000000002</v>
       </c>
       <c r="AQ4" s="1">
-        <v>983.500000</v>
+        <v>983.5</v>
       </c>
       <c r="AR4" s="1">
-        <v>-102.191000</v>
+        <v>-102.191</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>23497.353611</v>
+        <v>23497.353610999999</v>
       </c>
       <c r="AU4" s="1">
-        <v>6.527043</v>
+        <v>6.5270429999999999</v>
       </c>
       <c r="AV4" s="1">
-        <v>994.730000</v>
+        <v>994.73</v>
       </c>
       <c r="AW4" s="1">
-        <v>-123.695000</v>
+        <v>-123.69499999999999</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
         <v>23508.443196</v>
       </c>
       <c r="AZ4" s="1">
-        <v>6.530123</v>
+        <v>6.5301229999999997</v>
       </c>
       <c r="BA4" s="1">
-        <v>1004.250000</v>
+        <v>1004.25</v>
       </c>
       <c r="BB4" s="1">
-        <v>-142.472000</v>
+        <v>-142.47200000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>23520.118030</v>
+        <v>23520.118030000001</v>
       </c>
       <c r="BE4" s="1">
         <v>6.533366</v>
       </c>
       <c r="BF4" s="1">
-        <v>1049.170000</v>
+        <v>1049.17</v>
       </c>
       <c r="BG4" s="1">
-        <v>-227.579000</v>
+        <v>-227.57900000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>23531.232846</v>
+        <v>23531.232845999999</v>
       </c>
       <c r="BJ4" s="1">
         <v>6.536454</v>
       </c>
       <c r="BK4" s="1">
-        <v>1128.550000</v>
+        <v>1128.55</v>
       </c>
       <c r="BL4" s="1">
-        <v>-364.307000</v>
+        <v>-364.30700000000002</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>23542.023345</v>
+        <v>23542.023345000001</v>
       </c>
       <c r="BO4" s="1">
-        <v>6.539451</v>
+        <v>6.5394509999999997</v>
       </c>
       <c r="BP4" s="1">
-        <v>1260.410000</v>
+        <v>1260.4100000000001</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-575.163000</v>
+        <v>-575.16300000000001</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>23553.079137</v>
+        <v>23553.079137000001</v>
       </c>
       <c r="BT4" s="1">
-        <v>6.542522</v>
+        <v>6.5425219999999999</v>
       </c>
       <c r="BU4" s="1">
-        <v>1407.980000</v>
+        <v>1407.98</v>
       </c>
       <c r="BV4" s="1">
-        <v>-799.768000</v>
+        <v>-799.76800000000003</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>23564.154308</v>
+        <v>23564.154308000001</v>
       </c>
       <c r="BY4" s="1">
         <v>6.545598</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1570.400000</v>
+        <v>1570.4</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1034.810000</v>
+        <v>-1034.81</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>23575.396628</v>
+        <v>23575.396627999999</v>
       </c>
       <c r="CD4" s="1">
-        <v>6.548721</v>
+        <v>6.5487209999999996</v>
       </c>
       <c r="CE4" s="1">
-        <v>1979.290000</v>
+        <v>1979.29</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1581.910000</v>
+        <v>-1581.91</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>23404.289254</v>
+        <v>23404.289253999999</v>
       </c>
       <c r="B5" s="1">
-        <v>6.501191</v>
+        <v>6.5011910000000004</v>
       </c>
       <c r="C5" s="1">
-        <v>903.466000</v>
+        <v>903.46600000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>-196.506000</v>
+        <v>-196.506</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>23414.687385</v>
+        <v>23414.687385000001</v>
       </c>
       <c r="G5" s="1">
-        <v>6.504080</v>
+        <v>6.5040800000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>920.200000</v>
+        <v>920.2</v>
       </c>
       <c r="I5" s="1">
-        <v>-166.465000</v>
+        <v>-166.465</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
         <v>23425.428752</v>
       </c>
       <c r="L5" s="1">
-        <v>6.507064</v>
+        <v>6.5070639999999997</v>
       </c>
       <c r="M5" s="1">
-        <v>942.069000</v>
+        <v>942.06899999999996</v>
       </c>
       <c r="N5" s="1">
-        <v>-119.024000</v>
+        <v>-119.024</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>23435.752974</v>
+        <v>23435.752973999999</v>
       </c>
       <c r="Q5" s="1">
-        <v>6.509931</v>
+        <v>6.5099309999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>948.154000</v>
+        <v>948.154</v>
       </c>
       <c r="S5" s="1">
-        <v>-104.395000</v>
+        <v>-104.395</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>23445.923968</v>
+        <v>23445.923967999999</v>
       </c>
       <c r="V5" s="1">
-        <v>6.512757</v>
+        <v>6.5127569999999997</v>
       </c>
       <c r="W5" s="1">
-        <v>954.537000</v>
+        <v>954.53700000000003</v>
       </c>
       <c r="X5" s="1">
-        <v>-90.362200</v>
+        <v>-90.362200000000001</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>23456.079058</v>
+        <v>23456.079057999999</v>
       </c>
       <c r="AA5" s="1">
-        <v>6.515578</v>
+        <v>6.5155779999999996</v>
       </c>
       <c r="AB5" s="1">
-        <v>961.729000</v>
+        <v>961.72900000000004</v>
       </c>
       <c r="AC5" s="1">
-        <v>-80.585400</v>
+        <v>-80.585400000000007</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>23466.321908</v>
+        <v>23466.321908000002</v>
       </c>
       <c r="AF5" s="1">
-        <v>6.518423</v>
+        <v>6.5184230000000003</v>
       </c>
       <c r="AG5" s="1">
-        <v>966.496000</v>
+        <v>966.49599999999998</v>
       </c>
       <c r="AH5" s="1">
-        <v>-79.940100</v>
+        <v>-79.940100000000001</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
         <v>23476.477992</v>
       </c>
       <c r="AK5" s="1">
-        <v>6.521244</v>
+        <v>6.5212440000000003</v>
       </c>
       <c r="AL5" s="1">
-        <v>974.441000</v>
+        <v>974.44100000000003</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.310600</v>
+        <v>-87.310599999999994</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
         <v>23487.084937</v>
       </c>
       <c r="AP5" s="1">
-        <v>6.524190</v>
+        <v>6.5241899999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>983.514000</v>
+        <v>983.51400000000001</v>
       </c>
       <c r="AR5" s="1">
-        <v>-102.180000</v>
+        <v>-102.18</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>23498.085210</v>
+        <v>23498.085210000001</v>
       </c>
       <c r="AU5" s="1">
-        <v>6.527246</v>
+        <v>6.5272459999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>994.746000</v>
+        <v>994.74599999999998</v>
       </c>
       <c r="AW5" s="1">
-        <v>-123.696000</v>
+        <v>-123.696</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>23509.160380</v>
+        <v>23509.160380000001</v>
       </c>
       <c r="AZ5" s="1">
         <v>6.530322</v>
       </c>
       <c r="BA5" s="1">
-        <v>1004.270000</v>
+        <v>1004.27</v>
       </c>
       <c r="BB5" s="1">
-        <v>-142.471000</v>
+        <v>-142.471</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
         <v>23520.505868</v>
@@ -1417,1450 +1833,1450 @@
         <v>6.533474</v>
       </c>
       <c r="BF5" s="1">
-        <v>1049.170000</v>
+        <v>1049.17</v>
       </c>
       <c r="BG5" s="1">
-        <v>-227.572000</v>
+        <v>-227.572</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>23531.607363</v>
+        <v>23531.607362999999</v>
       </c>
       <c r="BJ5" s="1">
-        <v>6.536558</v>
+        <v>6.5365580000000003</v>
       </c>
       <c r="BK5" s="1">
-        <v>1128.570000</v>
+        <v>1128.57</v>
       </c>
       <c r="BL5" s="1">
-        <v>-364.286000</v>
+        <v>-364.286</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>23542.418638</v>
+        <v>23542.418637999999</v>
       </c>
       <c r="BO5" s="1">
         <v>6.539561</v>
       </c>
       <c r="BP5" s="1">
-        <v>1260.390000</v>
+        <v>1260.3900000000001</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-575.096000</v>
+        <v>-575.096</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>23553.815200</v>
+        <v>23553.815200000001</v>
       </c>
       <c r="BT5" s="1">
         <v>6.542726</v>
       </c>
       <c r="BU5" s="1">
-        <v>1408.150000</v>
+        <v>1408.15</v>
       </c>
       <c r="BV5" s="1">
-        <v>-799.824000</v>
+        <v>-799.82399999999996</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>23564.594290</v>
+        <v>23564.594290000001</v>
       </c>
       <c r="BY5" s="1">
-        <v>6.545721</v>
+        <v>6.5457210000000003</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1570.530000</v>
+        <v>1570.53</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1034.600000</v>
+        <v>-1034.5999999999999</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>23575.624788</v>
+        <v>23575.624788000001</v>
       </c>
       <c r="CD5" s="1">
-        <v>6.548785</v>
+        <v>6.5487849999999996</v>
       </c>
       <c r="CE5" s="1">
-        <v>1979.490000</v>
+        <v>1979.49</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1581.650000</v>
+        <v>-1581.65</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>23404.628519</v>
+        <v>23404.628519000002</v>
       </c>
       <c r="B6" s="1">
-        <v>6.501286</v>
+        <v>6.5012860000000003</v>
       </c>
       <c r="C6" s="1">
-        <v>903.284000</v>
+        <v>903.28399999999999</v>
       </c>
       <c r="D6" s="1">
-        <v>-196.582000</v>
+        <v>-196.58199999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>23415.112456</v>
+        <v>23415.112455999999</v>
       </c>
       <c r="G6" s="1">
-        <v>6.504198</v>
+        <v>6.5041979999999997</v>
       </c>
       <c r="H6" s="1">
-        <v>919.592000</v>
+        <v>919.59199999999998</v>
       </c>
       <c r="I6" s="1">
-        <v>-166.791000</v>
+        <v>-166.791</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>23425.832524</v>
+        <v>23425.832524000001</v>
       </c>
       <c r="L6" s="1">
-        <v>6.507176</v>
+        <v>6.5071760000000003</v>
       </c>
       <c r="M6" s="1">
-        <v>942.148000</v>
+        <v>942.14800000000002</v>
       </c>
       <c r="N6" s="1">
-        <v>-118.855000</v>
+        <v>-118.855</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>23436.030268</v>
+        <v>23436.030267999999</v>
       </c>
       <c r="Q6" s="1">
         <v>6.510008</v>
       </c>
       <c r="R6" s="1">
-        <v>948.143000</v>
+        <v>948.14300000000003</v>
       </c>
       <c r="S6" s="1">
-        <v>-104.377000</v>
+        <v>-104.377</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>23446.273647</v>
+        <v>23446.273647000002</v>
       </c>
       <c r="V6" s="1">
-        <v>6.512854</v>
+        <v>6.5128539999999999</v>
       </c>
       <c r="W6" s="1">
-        <v>954.491000</v>
+        <v>954.49099999999999</v>
       </c>
       <c r="X6" s="1">
-        <v>-90.345500</v>
+        <v>-90.345500000000001</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>23456.429201</v>
+        <v>23456.429200999999</v>
       </c>
       <c r="AA6" s="1">
-        <v>6.515675</v>
+        <v>6.5156749999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>961.668000</v>
+        <v>961.66800000000001</v>
       </c>
       <c r="AC6" s="1">
-        <v>-80.615600</v>
+        <v>-80.615600000000001</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>23466.664179</v>
+        <v>23466.664178999999</v>
       </c>
       <c r="AF6" s="1">
-        <v>6.518518</v>
+        <v>6.5185180000000003</v>
       </c>
       <c r="AG6" s="1">
-        <v>966.510000</v>
+        <v>966.51</v>
       </c>
       <c r="AH6" s="1">
-        <v>-79.899700</v>
+        <v>-79.899699999999996</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>23477.176887</v>
+        <v>23477.176887000001</v>
       </c>
       <c r="AK6" s="1">
-        <v>6.521438</v>
+        <v>6.5214379999999998</v>
       </c>
       <c r="AL6" s="1">
-        <v>974.452000</v>
+        <v>974.452</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.312800</v>
+        <v>-87.312799999999996</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>23487.803640</v>
+        <v>23487.803639999998</v>
       </c>
       <c r="AP6" s="1">
-        <v>6.524390</v>
+        <v>6.5243900000000004</v>
       </c>
       <c r="AQ6" s="1">
-        <v>983.518000</v>
+        <v>983.51800000000003</v>
       </c>
       <c r="AR6" s="1">
-        <v>-102.190000</v>
+        <v>-102.19</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>23498.477049</v>
+        <v>23498.477049000001</v>
       </c>
       <c r="AU6" s="1">
         <v>6.527355</v>
       </c>
       <c r="AV6" s="1">
-        <v>994.736000</v>
+        <v>994.73599999999999</v>
       </c>
       <c r="AW6" s="1">
-        <v>-123.717000</v>
+        <v>-123.717</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>23509.517501</v>
+        <v>23509.517500999998</v>
       </c>
       <c r="AZ6" s="1">
-        <v>6.530422</v>
+        <v>6.5304219999999997</v>
       </c>
       <c r="BA6" s="1">
-        <v>1004.250000</v>
+        <v>1004.25</v>
       </c>
       <c r="BB6" s="1">
-        <v>-142.476000</v>
+        <v>-142.476</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>23520.867454</v>
+        <v>23520.867453999999</v>
       </c>
       <c r="BE6" s="1">
-        <v>6.533574</v>
+        <v>6.5335739999999998</v>
       </c>
       <c r="BF6" s="1">
-        <v>1049.150000</v>
+        <v>1049.1500000000001</v>
       </c>
       <c r="BG6" s="1">
-        <v>-227.584000</v>
+        <v>-227.584</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>23532.285389</v>
+        <v>23532.285389000001</v>
       </c>
       <c r="BJ6" s="1">
-        <v>6.536746</v>
+        <v>6.5367459999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1128.560000</v>
+        <v>1128.56</v>
       </c>
       <c r="BL6" s="1">
-        <v>-364.280000</v>
+        <v>-364.28</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
         <v>23543.149728</v>
       </c>
       <c r="BO6" s="1">
-        <v>6.539764</v>
+        <v>6.5397639999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1260.400000</v>
+        <v>1260.4000000000001</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-575.215000</v>
+        <v>-575.21500000000003</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>23553.936257</v>
+        <v>23553.936257000001</v>
       </c>
       <c r="BT6" s="1">
-        <v>6.542760</v>
+        <v>6.5427600000000004</v>
       </c>
       <c r="BU6" s="1">
-        <v>1408.140000</v>
+        <v>1408.14</v>
       </c>
       <c r="BV6" s="1">
-        <v>-799.739000</v>
+        <v>-799.73900000000003</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>23564.783235</v>
+        <v>23564.783234999999</v>
       </c>
       <c r="BY6" s="1">
-        <v>6.545773</v>
+        <v>6.5457729999999996</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1570.470000</v>
+        <v>1570.47</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1034.780000</v>
+        <v>-1034.78</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>23576.141619</v>
+        <v>23576.141619000002</v>
       </c>
       <c r="CD6" s="1">
-        <v>6.548928</v>
+        <v>6.5489280000000001</v>
       </c>
       <c r="CE6" s="1">
-        <v>1978.210000</v>
+        <v>1978.21</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1582.920000</v>
+        <v>-1582.92</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>23405.046149</v>
+        <v>23405.046149000002</v>
       </c>
       <c r="B7" s="1">
-        <v>6.501402</v>
+        <v>6.5014019999999997</v>
       </c>
       <c r="C7" s="1">
-        <v>903.432000</v>
+        <v>903.43200000000002</v>
       </c>
       <c r="D7" s="1">
-        <v>-196.653000</v>
+        <v>-196.65299999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>23415.382775</v>
+        <v>23415.382774999998</v>
       </c>
       <c r="G7" s="1">
-        <v>6.504273</v>
+        <v>6.5042730000000004</v>
       </c>
       <c r="H7" s="1">
-        <v>919.999000</v>
+        <v>919.99900000000002</v>
       </c>
       <c r="I7" s="1">
-        <v>-166.400000</v>
+        <v>-166.4</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>23426.178201</v>
+        <v>23426.178200999999</v>
       </c>
       <c r="L7" s="1">
-        <v>6.507272</v>
+        <v>6.5072720000000004</v>
       </c>
       <c r="M7" s="1">
-        <v>942.178000</v>
+        <v>942.178</v>
       </c>
       <c r="N7" s="1">
-        <v>-118.985000</v>
+        <v>-118.985</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>23436.379420</v>
+        <v>23436.379420000001</v>
       </c>
       <c r="Q7" s="1">
-        <v>6.510105</v>
+        <v>6.5101050000000003</v>
       </c>
       <c r="R7" s="1">
-        <v>948.131000</v>
+        <v>948.13099999999997</v>
       </c>
       <c r="S7" s="1">
-        <v>-104.383000</v>
+        <v>-104.383</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>23446.616848</v>
+        <v>23446.616848000001</v>
       </c>
       <c r="V7" s="1">
-        <v>6.512949</v>
+        <v>6.5129489999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>954.537000</v>
+        <v>954.53700000000003</v>
       </c>
       <c r="X7" s="1">
-        <v>-90.330600</v>
+        <v>-90.330600000000004</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>23456.778881</v>
+        <v>23456.778880999998</v>
       </c>
       <c r="AA7" s="1">
-        <v>6.515772</v>
+        <v>6.5157720000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>961.639000</v>
+        <v>961.63900000000001</v>
       </c>
       <c r="AC7" s="1">
-        <v>-80.522800</v>
+        <v>-80.522800000000004</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>23467.350612</v>
+        <v>23467.350611999998</v>
       </c>
       <c r="AF7" s="1">
-        <v>6.518709</v>
+        <v>6.5187090000000003</v>
       </c>
       <c r="AG7" s="1">
-        <v>966.516000</v>
+        <v>966.51599999999996</v>
       </c>
       <c r="AH7" s="1">
-        <v>-79.881000</v>
+        <v>-79.881</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
         <v>23477.523589</v>
       </c>
       <c r="AK7" s="1">
-        <v>6.521534</v>
+        <v>6.5215339999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>974.471000</v>
+        <v>974.471</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.322100</v>
+        <v>-87.322100000000006</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>23488.164727</v>
+        <v>23488.164726999999</v>
       </c>
       <c r="AP7" s="1">
-        <v>6.524490</v>
+        <v>6.5244900000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>983.510000</v>
+        <v>983.51</v>
       </c>
       <c r="AR7" s="1">
-        <v>-102.168000</v>
+        <v>-102.16800000000001</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>23498.840121</v>
+        <v>23498.840121000001</v>
       </c>
       <c r="AU7" s="1">
-        <v>6.527456</v>
+        <v>6.5274559999999999</v>
       </c>
       <c r="AV7" s="1">
-        <v>994.754000</v>
+        <v>994.75400000000002</v>
       </c>
       <c r="AW7" s="1">
-        <v>-123.712000</v>
+        <v>-123.712</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
         <v>23509.876108</v>
       </c>
       <c r="AZ7" s="1">
-        <v>6.530521</v>
+        <v>6.5305210000000002</v>
       </c>
       <c r="BA7" s="1">
-        <v>1004.240000</v>
+        <v>1004.24</v>
       </c>
       <c r="BB7" s="1">
-        <v>-142.458000</v>
+        <v>-142.458</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>23521.537714</v>
+        <v>23521.537713999998</v>
       </c>
       <c r="BE7" s="1">
-        <v>6.533760</v>
+        <v>6.53376</v>
       </c>
       <c r="BF7" s="1">
-        <v>1049.150000</v>
+        <v>1049.1500000000001</v>
       </c>
       <c r="BG7" s="1">
-        <v>-227.568000</v>
+        <v>-227.56800000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>23532.396958</v>
+        <v>23532.396958000001</v>
       </c>
       <c r="BJ7" s="1">
-        <v>6.536777</v>
+        <v>6.5367769999999998</v>
       </c>
       <c r="BK7" s="1">
-        <v>1128.550000</v>
+        <v>1128.55</v>
       </c>
       <c r="BL7" s="1">
-        <v>-364.303000</v>
+        <v>-364.303</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
         <v>23543.263821</v>
       </c>
       <c r="BO7" s="1">
-        <v>6.539796</v>
+        <v>6.5397959999999999</v>
       </c>
       <c r="BP7" s="1">
-        <v>1260.420000</v>
+        <v>1260.42</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-575.156000</v>
+        <v>-575.15599999999995</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>23554.346945</v>
+        <v>23554.346945000001</v>
       </c>
       <c r="BT7" s="1">
-        <v>6.542874</v>
+        <v>6.5428740000000003</v>
       </c>
       <c r="BU7" s="1">
-        <v>1408.280000</v>
+        <v>1408.28</v>
       </c>
       <c r="BV7" s="1">
-        <v>-799.720000</v>
+        <v>-799.72</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
         <v>23565.204338</v>
       </c>
       <c r="BY7" s="1">
-        <v>6.545890</v>
+        <v>6.54589</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1570.560000</v>
+        <v>1570.56</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1034.710000</v>
+        <v>-1034.71</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
         <v>23576.658979</v>
       </c>
       <c r="CD7" s="1">
-        <v>6.549072</v>
+        <v>6.5490719999999998</v>
       </c>
       <c r="CE7" s="1">
-        <v>1978.950000</v>
+        <v>1978.95</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1581.900000</v>
+        <v>-1581.9</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>23405.319942</v>
+        <v>23405.319941999998</v>
       </c>
       <c r="B8" s="1">
-        <v>6.501478</v>
+        <v>6.5014779999999996</v>
       </c>
       <c r="C8" s="1">
-        <v>903.203000</v>
+        <v>903.20299999999997</v>
       </c>
       <c r="D8" s="1">
-        <v>-196.782000</v>
+        <v>-196.78200000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>23415.725512</v>
+        <v>23415.725512000001</v>
       </c>
       <c r="G8" s="1">
-        <v>6.504368</v>
+        <v>6.5043680000000004</v>
       </c>
       <c r="H8" s="1">
-        <v>919.977000</v>
+        <v>919.97699999999998</v>
       </c>
       <c r="I8" s="1">
-        <v>-166.629000</v>
+        <v>-166.62899999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>23426.521929</v>
+        <v>23426.521928999999</v>
       </c>
       <c r="L8" s="1">
-        <v>6.507367</v>
+        <v>6.5073670000000003</v>
       </c>
       <c r="M8" s="1">
-        <v>941.928000</v>
+        <v>941.928</v>
       </c>
       <c r="N8" s="1">
-        <v>-119.014000</v>
+        <v>-119.014</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>23436.728603</v>
       </c>
       <c r="Q8" s="1">
-        <v>6.510202</v>
+        <v>6.5102019999999996</v>
       </c>
       <c r="R8" s="1">
-        <v>948.139000</v>
+        <v>948.13900000000001</v>
       </c>
       <c r="S8" s="1">
-        <v>-104.369000</v>
+        <v>-104.369</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>23447.302351</v>
+        <v>23447.302350999998</v>
       </c>
       <c r="V8" s="1">
-        <v>6.513140</v>
+        <v>6.5131399999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>954.558000</v>
+        <v>954.55799999999999</v>
       </c>
       <c r="X8" s="1">
-        <v>-90.369400</v>
+        <v>-90.369399999999999</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>23457.473776</v>
+        <v>23457.473775999999</v>
       </c>
       <c r="AA8" s="1">
-        <v>6.515965</v>
+        <v>6.5159649999999996</v>
       </c>
       <c r="AB8" s="1">
-        <v>961.655000</v>
+        <v>961.65499999999997</v>
       </c>
       <c r="AC8" s="1">
-        <v>-80.506000</v>
+        <v>-80.506</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>23467.694338</v>
+        <v>23467.694338000001</v>
       </c>
       <c r="AF8" s="1">
-        <v>6.518804</v>
+        <v>6.5188040000000003</v>
       </c>
       <c r="AG8" s="1">
-        <v>966.452000</v>
+        <v>966.452</v>
       </c>
       <c r="AH8" s="1">
-        <v>-79.785000</v>
+        <v>-79.784999999999997</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>23477.871750</v>
+        <v>23477.871749999998</v>
       </c>
       <c r="AK8" s="1">
-        <v>6.521631</v>
+        <v>6.5216310000000002</v>
       </c>
       <c r="AL8" s="1">
-        <v>974.460000</v>
+        <v>974.46</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.312300</v>
+        <v>-87.312299999999993</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
         <v>23488.522375</v>
       </c>
       <c r="AP8" s="1">
-        <v>6.524590</v>
+        <v>6.5245899999999999</v>
       </c>
       <c r="AQ8" s="1">
-        <v>983.517000</v>
+        <v>983.51700000000005</v>
       </c>
       <c r="AR8" s="1">
-        <v>-102.187000</v>
+        <v>-102.187</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
         <v>23499.514184</v>
       </c>
       <c r="AU8" s="1">
-        <v>6.527643</v>
+        <v>6.5276430000000003</v>
       </c>
       <c r="AV8" s="1">
-        <v>994.756000</v>
+        <v>994.75599999999997</v>
       </c>
       <c r="AW8" s="1">
-        <v>-123.705000</v>
+        <v>-123.705</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
         <v>23510.538762</v>
       </c>
       <c r="AZ8" s="1">
-        <v>6.530705</v>
+        <v>6.5307050000000002</v>
       </c>
       <c r="BA8" s="1">
-        <v>1004.240000</v>
+        <v>1004.24</v>
       </c>
       <c r="BB8" s="1">
-        <v>-142.471000</v>
+        <v>-142.471</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
         <v>23521.983946</v>
       </c>
       <c r="BE8" s="1">
-        <v>6.533884</v>
+        <v>6.5338839999999996</v>
       </c>
       <c r="BF8" s="1">
-        <v>1049.170000</v>
+        <v>1049.17</v>
       </c>
       <c r="BG8" s="1">
-        <v>-227.567000</v>
+        <v>-227.56700000000001</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>23532.755070</v>
+        <v>23532.755069999999</v>
       </c>
       <c r="BJ8" s="1">
-        <v>6.536876</v>
+        <v>6.5368760000000004</v>
       </c>
       <c r="BK8" s="1">
-        <v>1128.570000</v>
+        <v>1128.57</v>
       </c>
       <c r="BL8" s="1">
-        <v>-364.323000</v>
+        <v>-364.32299999999998</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>23543.661102</v>
+        <v>23543.661101999998</v>
       </c>
       <c r="BO8" s="1">
-        <v>6.539906</v>
+        <v>6.5399060000000002</v>
       </c>
       <c r="BP8" s="1">
-        <v>1260.370000</v>
+        <v>1260.3699999999999</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-575.176000</v>
+        <v>-575.17600000000004</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>23554.773471</v>
       </c>
       <c r="BT8" s="1">
-        <v>6.542993</v>
+        <v>6.5429930000000001</v>
       </c>
       <c r="BU8" s="1">
-        <v>1408.370000</v>
+        <v>1408.37</v>
       </c>
       <c r="BV8" s="1">
-        <v>-799.770000</v>
+        <v>-799.77</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>23565.625937</v>
+        <v>23565.625937000001</v>
       </c>
       <c r="BY8" s="1">
-        <v>6.546007</v>
+        <v>6.5460070000000004</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1570.520000</v>
+        <v>1570.52</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1034.770000</v>
+        <v>-1034.77</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>23577.212513</v>
+        <v>23577.212512999999</v>
       </c>
       <c r="CD8" s="1">
         <v>6.549226</v>
       </c>
       <c r="CE8" s="1">
-        <v>1980.050000</v>
+        <v>1980.05</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1581.830000</v>
+        <v>-1581.83</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>23405.660196</v>
+        <v>23405.660196000001</v>
       </c>
       <c r="B9" s="1">
-        <v>6.501572</v>
+        <v>6.5015720000000004</v>
       </c>
       <c r="C9" s="1">
-        <v>903.200000</v>
+        <v>903.2</v>
       </c>
       <c r="D9" s="1">
-        <v>-196.615000</v>
+        <v>-196.61500000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>23416.068742</v>
+        <v>23416.068741999999</v>
       </c>
       <c r="G9" s="1">
-        <v>6.504464</v>
+        <v>6.5044639999999996</v>
       </c>
       <c r="H9" s="1">
-        <v>920.126000</v>
+        <v>920.12599999999998</v>
       </c>
       <c r="I9" s="1">
-        <v>-166.444000</v>
+        <v>-166.44399999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>23427.210409</v>
+        <v>23427.210408999999</v>
       </c>
       <c r="L9" s="1">
-        <v>6.507558</v>
+        <v>6.5075580000000004</v>
       </c>
       <c r="M9" s="1">
-        <v>942.012000</v>
+        <v>942.01199999999994</v>
       </c>
       <c r="N9" s="1">
-        <v>-118.707000</v>
+        <v>-118.70699999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>23437.428459</v>
+        <v>23437.428458999999</v>
       </c>
       <c r="Q9" s="1">
-        <v>6.510397</v>
+        <v>6.5103970000000002</v>
       </c>
       <c r="R9" s="1">
-        <v>948.158000</v>
+        <v>948.15800000000002</v>
       </c>
       <c r="S9" s="1">
-        <v>-104.344000</v>
+        <v>-104.34399999999999</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>23447.646541</v>
+        <v>23447.646540999998</v>
       </c>
       <c r="V9" s="1">
-        <v>6.513235</v>
+        <v>6.5132349999999999</v>
       </c>
       <c r="W9" s="1">
-        <v>954.530000</v>
+        <v>954.53</v>
       </c>
       <c r="X9" s="1">
-        <v>-90.342600</v>
+        <v>-90.342600000000004</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
         <v>23457.823989</v>
       </c>
       <c r="AA9" s="1">
-        <v>6.516062</v>
+        <v>6.5160619999999998</v>
       </c>
       <c r="AB9" s="1">
-        <v>961.598000</v>
+        <v>961.59799999999996</v>
       </c>
       <c r="AC9" s="1">
-        <v>-80.667800</v>
+        <v>-80.6678</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>23468.038562</v>
+        <v>23468.038562000002</v>
       </c>
       <c r="AF9" s="1">
-        <v>6.518900</v>
+        <v>6.5189000000000004</v>
       </c>
       <c r="AG9" s="1">
-        <v>966.595000</v>
+        <v>966.59500000000003</v>
       </c>
       <c r="AH9" s="1">
-        <v>-79.620600</v>
+        <v>-79.620599999999996</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>23478.529940</v>
+        <v>23478.52994</v>
       </c>
       <c r="AK9" s="1">
         <v>6.521814</v>
       </c>
       <c r="AL9" s="1">
-        <v>974.440000</v>
+        <v>974.44</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.299200</v>
+        <v>-87.299199999999999</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>23489.190604</v>
+        <v>23489.190603999999</v>
       </c>
       <c r="AP9" s="1">
         <v>6.524775</v>
       </c>
       <c r="AQ9" s="1">
-        <v>983.504000</v>
+        <v>983.50400000000002</v>
       </c>
       <c r="AR9" s="1">
-        <v>-102.172000</v>
+        <v>-102.172</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
         <v>23499.936317</v>
       </c>
       <c r="AU9" s="1">
-        <v>6.527760</v>
+        <v>6.5277599999999998</v>
       </c>
       <c r="AV9" s="1">
-        <v>994.727000</v>
+        <v>994.72699999999998</v>
       </c>
       <c r="AW9" s="1">
-        <v>-123.690000</v>
+        <v>-123.69</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>23510.954906</v>
+        <v>23510.954905999999</v>
       </c>
       <c r="AZ9" s="1">
-        <v>6.530821</v>
+        <v>6.5308210000000004</v>
       </c>
       <c r="BA9" s="1">
-        <v>1004.260000</v>
+        <v>1004.26</v>
       </c>
       <c r="BB9" s="1">
-        <v>-142.450000</v>
+        <v>-142.44999999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>23522.347514</v>
+        <v>23522.347514000001</v>
       </c>
       <c r="BE9" s="1">
-        <v>6.533985</v>
+        <v>6.5339850000000004</v>
       </c>
       <c r="BF9" s="1">
-        <v>1049.140000</v>
+        <v>1049.1400000000001</v>
       </c>
       <c r="BG9" s="1">
-        <v>-227.578000</v>
+        <v>-227.578</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
         <v>23533.132028</v>
       </c>
       <c r="BJ9" s="1">
-        <v>6.536981</v>
+        <v>6.5369809999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1128.530000</v>
+        <v>1128.53</v>
       </c>
       <c r="BL9" s="1">
-        <v>-364.286000</v>
+        <v>-364.286</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>23544.082738</v>
+        <v>23544.082738000001</v>
       </c>
       <c r="BO9" s="1">
-        <v>6.540023</v>
+        <v>6.5400229999999997</v>
       </c>
       <c r="BP9" s="1">
-        <v>1260.390000</v>
+        <v>1260.3900000000001</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-575.144000</v>
+        <v>-575.14400000000001</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>23555.191625</v>
+        <v>23555.191624999999</v>
       </c>
       <c r="BT9" s="1">
-        <v>6.543109</v>
+        <v>6.5431090000000003</v>
       </c>
       <c r="BU9" s="1">
-        <v>1408.460000</v>
+        <v>1408.46</v>
       </c>
       <c r="BV9" s="1">
-        <v>-799.713000</v>
+        <v>-799.71299999999997</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>23566.060465</v>
+        <v>23566.060464999999</v>
       </c>
       <c r="BY9" s="1">
-        <v>6.546128</v>
+        <v>6.5461280000000004</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1570.490000</v>
+        <v>1570.49</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1034.640000</v>
+        <v>-1034.6400000000001</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
         <v>23577.742209</v>
       </c>
       <c r="CD9" s="1">
-        <v>6.549373</v>
+        <v>6.5493730000000001</v>
       </c>
       <c r="CE9" s="1">
-        <v>1978.440000</v>
+        <v>1978.44</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1582.490000</v>
+        <v>-1582.49</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>23406.003924</v>
+        <v>23406.003924000001</v>
       </c>
       <c r="B10" s="1">
-        <v>6.501668</v>
+        <v>6.5016679999999996</v>
       </c>
       <c r="C10" s="1">
-        <v>903.243000</v>
+        <v>903.24300000000005</v>
       </c>
       <c r="D10" s="1">
-        <v>-196.703000</v>
+        <v>-196.703</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>23416.759207</v>
+        <v>23416.759206999999</v>
       </c>
       <c r="G10" s="1">
-        <v>6.504655</v>
+        <v>6.5046549999999996</v>
       </c>
       <c r="H10" s="1">
-        <v>920.342000</v>
+        <v>920.34199999999998</v>
       </c>
       <c r="I10" s="1">
-        <v>-166.305000</v>
+        <v>-166.30500000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
         <v>23427.549143</v>
       </c>
       <c r="L10" s="1">
-        <v>6.507653</v>
+        <v>6.5076530000000004</v>
       </c>
       <c r="M10" s="1">
-        <v>941.897000</v>
+        <v>941.89700000000005</v>
       </c>
       <c r="N10" s="1">
-        <v>-118.876000</v>
+        <v>-118.876</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
         <v>23437.773674</v>
       </c>
       <c r="Q10" s="1">
-        <v>6.510493</v>
+        <v>6.5104930000000003</v>
       </c>
       <c r="R10" s="1">
-        <v>948.192000</v>
+        <v>948.19200000000001</v>
       </c>
       <c r="S10" s="1">
-        <v>-104.375000</v>
+        <v>-104.375</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
         <v>23447.989276</v>
       </c>
       <c r="V10" s="1">
-        <v>6.513330</v>
+        <v>6.5133299999999998</v>
       </c>
       <c r="W10" s="1">
-        <v>954.542000</v>
+        <v>954.54200000000003</v>
       </c>
       <c r="X10" s="1">
-        <v>-90.369000</v>
+        <v>-90.369</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>23458.172640</v>
+        <v>23458.172640000001</v>
       </c>
       <c r="AA10" s="1">
         <v>6.516159</v>
       </c>
       <c r="AB10" s="1">
-        <v>961.566000</v>
+        <v>961.56600000000003</v>
       </c>
       <c r="AC10" s="1">
-        <v>-80.688500</v>
+        <v>-80.688500000000005</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>23468.684849</v>
+        <v>23468.684849000001</v>
       </c>
       <c r="AF10" s="1">
-        <v>6.519079</v>
+        <v>6.5190789999999996</v>
       </c>
       <c r="AG10" s="1">
-        <v>966.611000</v>
+        <v>966.61099999999999</v>
       </c>
       <c r="AH10" s="1">
-        <v>-79.582600</v>
+        <v>-79.582599999999999</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>23478.919796</v>
+        <v>23478.919795999998</v>
       </c>
       <c r="AK10" s="1">
         <v>6.521922</v>
       </c>
       <c r="AL10" s="1">
-        <v>974.426000</v>
+        <v>974.42600000000004</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.297300</v>
+        <v>-87.297300000000007</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
         <v>23489.633877</v>
       </c>
       <c r="AP10" s="1">
-        <v>6.524898</v>
+        <v>6.5248980000000003</v>
       </c>
       <c r="AQ10" s="1">
-        <v>983.523000</v>
+        <v>983.52300000000002</v>
       </c>
       <c r="AR10" s="1">
-        <v>-102.169000</v>
+        <v>-102.169</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>23500.299351</v>
+        <v>23500.299351000001</v>
       </c>
       <c r="AU10" s="1">
-        <v>6.527861</v>
+        <v>6.5278609999999997</v>
       </c>
       <c r="AV10" s="1">
-        <v>994.746000</v>
+        <v>994.74599999999998</v>
       </c>
       <c r="AW10" s="1">
-        <v>-123.717000</v>
+        <v>-123.717</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
         <v>23511.343805</v>
       </c>
       <c r="AZ10" s="1">
-        <v>6.530929</v>
+        <v>6.5309290000000004</v>
       </c>
       <c r="BA10" s="1">
-        <v>1004.220000</v>
+        <v>1004.22</v>
       </c>
       <c r="BB10" s="1">
-        <v>-142.453000</v>
+        <v>-142.453</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>23522.707114</v>
+        <v>23522.707114000001</v>
       </c>
       <c r="BE10" s="1">
-        <v>6.534085</v>
+        <v>6.5340850000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1049.160000</v>
+        <v>1049.1600000000001</v>
       </c>
       <c r="BG10" s="1">
-        <v>-227.568000</v>
+        <v>-227.56800000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>23533.551147</v>
+        <v>23533.551146999998</v>
       </c>
       <c r="BJ10" s="1">
-        <v>6.537098</v>
+        <v>6.5370980000000003</v>
       </c>
       <c r="BK10" s="1">
-        <v>1128.570000</v>
+        <v>1128.57</v>
       </c>
       <c r="BL10" s="1">
-        <v>-364.287000</v>
+        <v>-364.28699999999998</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>23544.512237</v>
+        <v>23544.512236999999</v>
       </c>
       <c r="BO10" s="1">
-        <v>6.540142</v>
+        <v>6.5401420000000003</v>
       </c>
       <c r="BP10" s="1">
-        <v>1260.400000</v>
+        <v>1260.4000000000001</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-575.180000</v>
+        <v>-575.17999999999995</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
         <v>23555.607742</v>
       </c>
       <c r="BT10" s="1">
-        <v>6.543224</v>
+        <v>6.5432240000000004</v>
       </c>
       <c r="BU10" s="1">
-        <v>1408.560000</v>
+        <v>1408.56</v>
       </c>
       <c r="BV10" s="1">
-        <v>-799.726000</v>
+        <v>-799.726</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
         <v>23566.491984</v>
       </c>
       <c r="BY10" s="1">
-        <v>6.546248</v>
+        <v>6.5462480000000003</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1570.450000</v>
+        <v>1570.45</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1034.650000</v>
+        <v>-1034.6500000000001</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>23578.262016</v>
+        <v>23578.262016000001</v>
       </c>
       <c r="CD10" s="1">
-        <v>6.549517</v>
+        <v>6.5495169999999998</v>
       </c>
       <c r="CE10" s="1">
-        <v>1980.180000</v>
+        <v>1980.18</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1583.520000</v>
+        <v>-1583.52</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
         <v>23406.684931</v>
       </c>
       <c r="B11" s="1">
-        <v>6.501857</v>
+        <v>6.5018570000000002</v>
       </c>
       <c r="C11" s="1">
-        <v>903.347000</v>
+        <v>903.34699999999998</v>
       </c>
       <c r="D11" s="1">
-        <v>-196.694000</v>
+        <v>-196.69399999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>23417.101910</v>
+        <v>23417.101910000001</v>
       </c>
       <c r="G11" s="1">
-        <v>6.504751</v>
+        <v>6.5047509999999997</v>
       </c>
       <c r="H11" s="1">
-        <v>920.203000</v>
+        <v>920.20299999999997</v>
       </c>
       <c r="I11" s="1">
-        <v>-166.101000</v>
+        <v>-166.101</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>23427.906295</v>
+        <v>23427.906295000001</v>
       </c>
       <c r="L11" s="1">
         <v>6.507752</v>
       </c>
       <c r="M11" s="1">
-        <v>941.956000</v>
+        <v>941.95600000000002</v>
       </c>
       <c r="N11" s="1">
-        <v>-118.897000</v>
+        <v>-118.89700000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>23438.125834</v>
+        <v>23438.125833999999</v>
       </c>
       <c r="Q11" s="1">
-        <v>6.510591</v>
+        <v>6.5105909999999998</v>
       </c>
       <c r="R11" s="1">
-        <v>948.176000</v>
+        <v>948.17600000000004</v>
       </c>
       <c r="S11" s="1">
-        <v>-104.417000</v>
+        <v>-104.417</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
         <v>23448.647469</v>
       </c>
       <c r="V11" s="1">
-        <v>6.513513</v>
+        <v>6.5135129999999997</v>
       </c>
       <c r="W11" s="1">
-        <v>954.547000</v>
+        <v>954.54700000000003</v>
       </c>
       <c r="X11" s="1">
-        <v>-90.286900</v>
+        <v>-90.286900000000003</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
         <v>23458.904736</v>
@@ -2869,315 +3285,315 @@
         <v>6.516362</v>
       </c>
       <c r="AB11" s="1">
-        <v>961.657000</v>
+        <v>961.65700000000004</v>
       </c>
       <c r="AC11" s="1">
-        <v>-80.631500</v>
+        <v>-80.631500000000003</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
         <v>23469.068753</v>
       </c>
       <c r="AF11" s="1">
-        <v>6.519186</v>
+        <v>6.5191860000000004</v>
       </c>
       <c r="AG11" s="1">
-        <v>966.642000</v>
+        <v>966.64200000000005</v>
       </c>
       <c r="AH11" s="1">
-        <v>-79.635500</v>
+        <v>-79.635499999999993</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
         <v>23479.268979</v>
       </c>
       <c r="AK11" s="1">
-        <v>6.522019</v>
+        <v>6.5220190000000002</v>
       </c>
       <c r="AL11" s="1">
-        <v>974.454000</v>
+        <v>974.45399999999995</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.299600</v>
+        <v>-87.299599999999998</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>23489.996950</v>
+        <v>23489.996950000001</v>
       </c>
       <c r="AP11" s="1">
-        <v>6.524999</v>
+        <v>6.5249990000000002</v>
       </c>
       <c r="AQ11" s="1">
-        <v>983.505000</v>
+        <v>983.505</v>
       </c>
       <c r="AR11" s="1">
-        <v>-102.181000</v>
+        <v>-102.181</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>23500.664440</v>
+        <v>23500.66444</v>
       </c>
       <c r="AU11" s="1">
-        <v>6.527962</v>
+        <v>6.5279619999999996</v>
       </c>
       <c r="AV11" s="1">
-        <v>994.723000</v>
+        <v>994.72299999999996</v>
       </c>
       <c r="AW11" s="1">
-        <v>-123.702000</v>
+        <v>-123.702</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>23511.986089</v>
+        <v>23511.986089000002</v>
       </c>
       <c r="AZ11" s="1">
-        <v>6.531107</v>
+        <v>6.5311070000000004</v>
       </c>
       <c r="BA11" s="1">
-        <v>1004.250000</v>
+        <v>1004.25</v>
       </c>
       <c r="BB11" s="1">
-        <v>-142.463000</v>
+        <v>-142.46299999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>23523.116809</v>
+        <v>23523.116808999999</v>
       </c>
       <c r="BE11" s="1">
-        <v>6.534199</v>
+        <v>6.5341990000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1049.170000</v>
+        <v>1049.17</v>
       </c>
       <c r="BG11" s="1">
-        <v>-227.565000</v>
+        <v>-227.565</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>23533.881517</v>
+        <v>23533.881517000002</v>
       </c>
       <c r="BJ11" s="1">
-        <v>6.537189</v>
+        <v>6.5371889999999997</v>
       </c>
       <c r="BK11" s="1">
-        <v>1128.550000</v>
+        <v>1128.55</v>
       </c>
       <c r="BL11" s="1">
-        <v>-364.297000</v>
+        <v>-364.29700000000003</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>23544.904076</v>
+        <v>23544.904075999999</v>
       </c>
       <c r="BO11" s="1">
-        <v>6.540251</v>
+        <v>6.5402509999999996</v>
       </c>
       <c r="BP11" s="1">
-        <v>1260.420000</v>
+        <v>1260.42</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-575.184000</v>
+        <v>-575.18399999999997</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>23556.022925</v>
+        <v>23556.022925000001</v>
       </c>
       <c r="BT11" s="1">
-        <v>6.543340</v>
+        <v>6.5433399999999997</v>
       </c>
       <c r="BU11" s="1">
-        <v>1408.560000</v>
+        <v>1408.56</v>
       </c>
       <c r="BV11" s="1">
-        <v>-799.821000</v>
+        <v>-799.82100000000003</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
         <v>23566.912591</v>
       </c>
       <c r="BY11" s="1">
-        <v>6.546365</v>
+        <v>6.5463649999999998</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1570.510000</v>
+        <v>1570.51</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1034.660000</v>
+        <v>-1034.6600000000001</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>23578.803680</v>
+        <v>23578.803680000001</v>
       </c>
       <c r="CD11" s="1">
-        <v>6.549668</v>
+        <v>6.5496679999999996</v>
       </c>
       <c r="CE11" s="1">
-        <v>1979.580000</v>
+        <v>1979.58</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1581.820000</v>
+        <v>-1581.82</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>23407.028658</v>
+        <v>23407.028657999999</v>
       </c>
       <c r="B12" s="1">
-        <v>6.501952</v>
+        <v>6.5019520000000002</v>
       </c>
       <c r="C12" s="1">
-        <v>903.379000</v>
+        <v>903.37900000000002</v>
       </c>
       <c r="D12" s="1">
-        <v>-196.609000</v>
+        <v>-196.60900000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>23417.447124</v>
+        <v>23417.447123999998</v>
       </c>
       <c r="G12" s="1">
-        <v>6.504846</v>
+        <v>6.5048459999999997</v>
       </c>
       <c r="H12" s="1">
-        <v>919.993000</v>
+        <v>919.99300000000005</v>
       </c>
       <c r="I12" s="1">
-        <v>-166.395000</v>
+        <v>-166.39500000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>23428.563959</v>
+        <v>23428.563958999999</v>
       </c>
       <c r="L12" s="1">
-        <v>6.507934</v>
+        <v>6.5079339999999997</v>
       </c>
       <c r="M12" s="1">
-        <v>941.848000</v>
+        <v>941.84799999999996</v>
       </c>
       <c r="N12" s="1">
-        <v>-119.015000</v>
+        <v>-119.015</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>23438.768682</v>
+        <v>23438.768682000002</v>
       </c>
       <c r="Q12" s="1">
-        <v>6.510769</v>
+        <v>6.5107689999999998</v>
       </c>
       <c r="R12" s="1">
-        <v>948.137000</v>
+        <v>948.13699999999994</v>
       </c>
       <c r="S12" s="1">
-        <v>-104.412000</v>
+        <v>-104.41200000000001</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>23449.018507</v>
+        <v>23449.018507000001</v>
       </c>
       <c r="V12" s="1">
-        <v>6.513616</v>
+        <v>6.5136159999999999</v>
       </c>
       <c r="W12" s="1">
-        <v>954.547000</v>
+        <v>954.54700000000003</v>
       </c>
       <c r="X12" s="1">
-        <v>-90.311200</v>
+        <v>-90.311199999999999</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>23459.216755</v>
+        <v>23459.216755000001</v>
       </c>
       <c r="AA12" s="1">
-        <v>6.516449</v>
+        <v>6.5164489999999997</v>
       </c>
       <c r="AB12" s="1">
-        <v>961.622000</v>
+        <v>961.62199999999996</v>
       </c>
       <c r="AC12" s="1">
-        <v>-80.569700</v>
+        <v>-80.569699999999997</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
         <v>23469.412976</v>
       </c>
       <c r="AF12" s="1">
-        <v>6.519281</v>
+        <v>6.5192810000000003</v>
       </c>
       <c r="AG12" s="1">
-        <v>966.660000</v>
+        <v>966.66</v>
       </c>
       <c r="AH12" s="1">
-        <v>-79.605700</v>
+        <v>-79.605699999999999</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>23479.615187</v>
+        <v>23479.615186999999</v>
       </c>
       <c r="AK12" s="1">
-        <v>6.522115</v>
+        <v>6.5221150000000003</v>
       </c>
       <c r="AL12" s="1">
-        <v>974.447000</v>
+        <v>974.447</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.293400</v>
+        <v>-87.293400000000005</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
         <v>23490.360021</v>
       </c>
       <c r="AP12" s="1">
-        <v>6.525100</v>
+        <v>6.5251000000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>983.508000</v>
+        <v>983.50800000000004</v>
       </c>
       <c r="AR12" s="1">
-        <v>-102.177000</v>
+        <v>-102.17700000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
         <v>23501.084518</v>
@@ -3186,58 +3602,58 @@
         <v>6.528079</v>
       </c>
       <c r="AV12" s="1">
-        <v>994.744000</v>
+        <v>994.74400000000003</v>
       </c>
       <c r="AW12" s="1">
-        <v>-123.700000</v>
+        <v>-123.7</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
         <v>23512.418147</v>
       </c>
       <c r="AZ12" s="1">
-        <v>6.531227</v>
+        <v>6.5312270000000003</v>
       </c>
       <c r="BA12" s="1">
-        <v>1004.260000</v>
+        <v>1004.26</v>
       </c>
       <c r="BB12" s="1">
-        <v>-142.459000</v>
+        <v>-142.459</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>23523.429320</v>
+        <v>23523.429319999999</v>
       </c>
       <c r="BE12" s="1">
-        <v>6.534286</v>
+        <v>6.5342859999999998</v>
       </c>
       <c r="BF12" s="1">
-        <v>1049.140000</v>
+        <v>1049.1400000000001</v>
       </c>
       <c r="BG12" s="1">
-        <v>-227.594000</v>
+        <v>-227.59399999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>23534.282251</v>
+        <v>23534.282251000001</v>
       </c>
       <c r="BJ12" s="1">
-        <v>6.537301</v>
+        <v>6.5373010000000003</v>
       </c>
       <c r="BK12" s="1">
-        <v>1128.570000</v>
+        <v>1128.57</v>
       </c>
       <c r="BL12" s="1">
-        <v>-364.308000</v>
+        <v>-364.30799999999999</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
         <v>23545.302271</v>
@@ -3246,332 +3662,332 @@
         <v>6.540362</v>
       </c>
       <c r="BP12" s="1">
-        <v>1260.390000</v>
+        <v>1260.3900000000001</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-575.130000</v>
+        <v>-575.13</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>23556.431134</v>
+        <v>23556.431133999999</v>
       </c>
       <c r="BT12" s="1">
-        <v>6.543453</v>
+        <v>6.5434530000000004</v>
       </c>
       <c r="BU12" s="1">
-        <v>1408.650000</v>
+        <v>1408.65</v>
       </c>
       <c r="BV12" s="1">
-        <v>-799.939000</v>
+        <v>-799.93899999999996</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>23567.334655</v>
+        <v>23567.334654999999</v>
       </c>
       <c r="BY12" s="1">
-        <v>6.546482</v>
+        <v>6.5464820000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1570.470000</v>
+        <v>1570.47</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1034.590000</v>
+        <v>-1034.5899999999999</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>23579.341808</v>
+        <v>23579.341808000001</v>
       </c>
       <c r="CD12" s="1">
         <v>6.549817</v>
       </c>
       <c r="CE12" s="1">
-        <v>1978.710000</v>
+        <v>1978.71</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1583.600000</v>
+        <v>-1583.6</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
         <v>23407.367467</v>
       </c>
       <c r="B13" s="1">
-        <v>6.502047</v>
+        <v>6.5020470000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>903.235000</v>
+        <v>903.23500000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>-196.617000</v>
+        <v>-196.61699999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>23418.094404</v>
+        <v>23418.094403999999</v>
       </c>
       <c r="G13" s="1">
         <v>6.505026</v>
       </c>
       <c r="H13" s="1">
-        <v>919.822000</v>
+        <v>919.822</v>
       </c>
       <c r="I13" s="1">
-        <v>-166.619000</v>
+        <v>-166.619</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>23428.941910</v>
+        <v>23428.941910000001</v>
       </c>
       <c r="L13" s="1">
-        <v>6.508039</v>
+        <v>6.5080390000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>941.675000</v>
+        <v>941.67499999999995</v>
       </c>
       <c r="N13" s="1">
-        <v>-118.830000</v>
+        <v>-118.83</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>23439.170408</v>
+        <v>23439.170408000002</v>
       </c>
       <c r="Q13" s="1">
-        <v>6.510881</v>
+        <v>6.5108810000000004</v>
       </c>
       <c r="R13" s="1">
-        <v>948.149000</v>
+        <v>948.149</v>
       </c>
       <c r="S13" s="1">
-        <v>-104.386000</v>
+        <v>-104.386</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>23449.362699</v>
+        <v>23449.362699000001</v>
       </c>
       <c r="V13" s="1">
-        <v>6.513712</v>
+        <v>6.5137119999999999</v>
       </c>
       <c r="W13" s="1">
-        <v>954.503000</v>
+        <v>954.50300000000004</v>
       </c>
       <c r="X13" s="1">
-        <v>-90.357700</v>
+        <v>-90.357699999999994</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>23459.566430</v>
+        <v>23459.566429999999</v>
       </c>
       <c r="AA13" s="1">
-        <v>6.516546</v>
+        <v>6.5165459999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>961.688000</v>
+        <v>961.68799999999999</v>
       </c>
       <c r="AC13" s="1">
-        <v>-80.559400</v>
+        <v>-80.559399999999997</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>23469.756736</v>
+        <v>23469.756735999999</v>
       </c>
       <c r="AF13" s="1">
-        <v>6.519377</v>
+        <v>6.5193770000000004</v>
       </c>
       <c r="AG13" s="1">
-        <v>966.627000</v>
+        <v>966.62699999999995</v>
       </c>
       <c r="AH13" s="1">
-        <v>-79.594300</v>
+        <v>-79.594300000000004</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>23480.032322</v>
+        <v>23480.032321999999</v>
       </c>
       <c r="AK13" s="1">
-        <v>6.522231</v>
+        <v>6.5222309999999997</v>
       </c>
       <c r="AL13" s="1">
-        <v>974.455000</v>
+        <v>974.45500000000004</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.324800</v>
+        <v>-87.324799999999996</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
         <v>23490.780628</v>
       </c>
       <c r="AP13" s="1">
-        <v>6.525217</v>
+        <v>6.5252169999999996</v>
       </c>
       <c r="AQ13" s="1">
-        <v>983.501000</v>
+        <v>983.50099999999998</v>
       </c>
       <c r="AR13" s="1">
-        <v>-102.182000</v>
+        <v>-102.182</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>23501.394518</v>
+        <v>23501.394518000001</v>
       </c>
       <c r="AU13" s="1">
-        <v>6.528165</v>
+        <v>6.5281650000000004</v>
       </c>
       <c r="AV13" s="1">
-        <v>994.731000</v>
+        <v>994.73099999999999</v>
       </c>
       <c r="AW13" s="1">
-        <v>-123.708000</v>
+        <v>-123.708</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>23512.796056</v>
+        <v>23512.796055999999</v>
       </c>
       <c r="AZ13" s="1">
-        <v>6.531332</v>
+        <v>6.5313319999999999</v>
       </c>
       <c r="BA13" s="1">
-        <v>1004.240000</v>
+        <v>1004.24</v>
       </c>
       <c r="BB13" s="1">
-        <v>-142.466000</v>
+        <v>-142.46600000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>23523.790408</v>
+        <v>23523.790408000001</v>
       </c>
       <c r="BE13" s="1">
-        <v>6.534386</v>
+        <v>6.5343859999999996</v>
       </c>
       <c r="BF13" s="1">
-        <v>1049.160000</v>
+        <v>1049.1600000000001</v>
       </c>
       <c r="BG13" s="1">
-        <v>-227.545000</v>
+        <v>-227.54499999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>23534.659211</v>
+        <v>23534.659210999998</v>
       </c>
       <c r="BJ13" s="1">
-        <v>6.537405</v>
+        <v>6.5374049999999997</v>
       </c>
       <c r="BK13" s="1">
-        <v>1128.590000</v>
+        <v>1128.5899999999999</v>
       </c>
       <c r="BL13" s="1">
-        <v>-364.299000</v>
+        <v>-364.29899999999998</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>23545.721485</v>
+        <v>23545.721484999998</v>
       </c>
       <c r="BO13" s="1">
-        <v>6.540478</v>
+        <v>6.5404780000000002</v>
       </c>
       <c r="BP13" s="1">
-        <v>1260.430000</v>
+        <v>1260.43</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-575.196000</v>
+        <v>-575.19600000000003</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>23556.851213</v>
+        <v>23556.851213000002</v>
       </c>
       <c r="BT13" s="1">
-        <v>6.543570</v>
+        <v>6.5435699999999999</v>
       </c>
       <c r="BU13" s="1">
-        <v>1408.690000</v>
+        <v>1408.69</v>
       </c>
       <c r="BV13" s="1">
-        <v>-799.928000</v>
+        <v>-799.928</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
         <v>23567.762735</v>
       </c>
       <c r="BY13" s="1">
-        <v>6.546601</v>
+        <v>6.5466009999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1570.550000</v>
+        <v>1570.55</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1034.730000</v>
+        <v>-1034.73</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>23579.883476</v>
+        <v>23579.883475999999</v>
       </c>
       <c r="CD13" s="1">
-        <v>6.549968</v>
+        <v>6.5499679999999998</v>
       </c>
       <c r="CE13" s="1">
-        <v>1980.890000</v>
+        <v>1980.89</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1582.970000</v>
+        <v>-1582.97</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>23407.972050</v>
+        <v>23407.97205</v>
       </c>
       <c r="B14" s="1">
-        <v>6.502214</v>
+        <v>6.5022140000000004</v>
       </c>
       <c r="C14" s="1">
-        <v>903.127000</v>
+        <v>903.12699999999995</v>
       </c>
       <c r="D14" s="1">
-        <v>-196.582000</v>
+        <v>-196.58199999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>23418.483299</v>
@@ -3580,1645 +3996,1645 @@
         <v>6.505134</v>
       </c>
       <c r="H14" s="1">
-        <v>920.196000</v>
+        <v>920.19600000000003</v>
       </c>
       <c r="I14" s="1">
-        <v>-166.267000</v>
+        <v>-166.267</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>23429.287158</v>
+        <v>23429.287157999999</v>
       </c>
       <c r="L14" s="1">
-        <v>6.508135</v>
+        <v>6.5081350000000002</v>
       </c>
       <c r="M14" s="1">
-        <v>941.809000</v>
+        <v>941.80899999999997</v>
       </c>
       <c r="N14" s="1">
-        <v>-118.854000</v>
+        <v>-118.854</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>23439.519095</v>
       </c>
       <c r="Q14" s="1">
-        <v>6.510978</v>
+        <v>6.5109779999999997</v>
       </c>
       <c r="R14" s="1">
-        <v>948.162000</v>
+        <v>948.16200000000003</v>
       </c>
       <c r="S14" s="1">
-        <v>-104.353000</v>
+        <v>-104.35299999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
         <v>23449.705434</v>
       </c>
       <c r="V14" s="1">
-        <v>6.513807</v>
+        <v>6.5138069999999999</v>
       </c>
       <c r="W14" s="1">
-        <v>954.464000</v>
+        <v>954.46400000000006</v>
       </c>
       <c r="X14" s="1">
-        <v>-90.404100</v>
+        <v>-90.4041</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>23459.976636</v>
+        <v>23459.976635999999</v>
       </c>
       <c r="AA14" s="1">
-        <v>6.516660</v>
+        <v>6.5166599999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>961.644000</v>
+        <v>961.64400000000001</v>
       </c>
       <c r="AC14" s="1">
-        <v>-80.490400</v>
+        <v>-80.490399999999994</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
         <v>23470.164911</v>
       </c>
       <c r="AF14" s="1">
-        <v>6.519490</v>
+        <v>6.5194900000000002</v>
       </c>
       <c r="AG14" s="1">
-        <v>966.639000</v>
+        <v>966.63900000000001</v>
       </c>
       <c r="AH14" s="1">
-        <v>-79.611400</v>
+        <v>-79.611400000000003</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>23480.312594</v>
+        <v>23480.312593999999</v>
       </c>
       <c r="AK14" s="1">
-        <v>6.522309</v>
+        <v>6.5223089999999999</v>
       </c>
       <c r="AL14" s="1">
-        <v>974.448000</v>
+        <v>974.44799999999998</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.312200</v>
+        <v>-87.312200000000004</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>23491.075284</v>
+        <v>23491.075283999999</v>
       </c>
       <c r="AP14" s="1">
-        <v>6.525299</v>
+        <v>6.5252990000000004</v>
       </c>
       <c r="AQ14" s="1">
-        <v>983.520000</v>
+        <v>983.52</v>
       </c>
       <c r="AR14" s="1">
-        <v>-102.194000</v>
+        <v>-102.194</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>23501.758085</v>
+        <v>23501.758085000001</v>
       </c>
       <c r="AU14" s="1">
-        <v>6.528266</v>
+        <v>6.5282660000000003</v>
       </c>
       <c r="AV14" s="1">
-        <v>994.733000</v>
+        <v>994.73299999999995</v>
       </c>
       <c r="AW14" s="1">
-        <v>-123.716000</v>
+        <v>-123.71599999999999</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>23513.184918</v>
+        <v>23513.184917999999</v>
       </c>
       <c r="AZ14" s="1">
-        <v>6.531440</v>
+        <v>6.5314399999999999</v>
       </c>
       <c r="BA14" s="1">
-        <v>1004.240000</v>
+        <v>1004.24</v>
       </c>
       <c r="BB14" s="1">
-        <v>-142.461000</v>
+        <v>-142.46100000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>23524.153450</v>
+        <v>23524.153450000002</v>
       </c>
       <c r="BE14" s="1">
-        <v>6.534487</v>
+        <v>6.5344870000000004</v>
       </c>
       <c r="BF14" s="1">
-        <v>1049.160000</v>
+        <v>1049.1600000000001</v>
       </c>
       <c r="BG14" s="1">
-        <v>-227.558000</v>
+        <v>-227.55799999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>23535.408170</v>
+        <v>23535.408169999999</v>
       </c>
       <c r="BJ14" s="1">
-        <v>6.537613</v>
+        <v>6.5376130000000003</v>
       </c>
       <c r="BK14" s="1">
-        <v>1128.560000</v>
+        <v>1128.56</v>
       </c>
       <c r="BL14" s="1">
-        <v>-364.305000</v>
+        <v>-364.30500000000001</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>23546.536443</v>
+        <v>23546.536443000001</v>
       </c>
       <c r="BO14" s="1">
         <v>6.540705</v>
       </c>
       <c r="BP14" s="1">
-        <v>1260.360000</v>
+        <v>1260.3599999999999</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-575.160000</v>
+        <v>-575.16</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>23557.264876</v>
+        <v>23557.264876000001</v>
       </c>
       <c r="BT14" s="1">
         <v>6.543685</v>
       </c>
       <c r="BU14" s="1">
-        <v>1408.740000</v>
+        <v>1408.74</v>
       </c>
       <c r="BV14" s="1">
-        <v>-800.042000</v>
+        <v>-800.04200000000003</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
         <v>23568.179838</v>
       </c>
       <c r="BY14" s="1">
-        <v>6.546717</v>
+        <v>6.5467170000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1570.490000</v>
+        <v>1570.49</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1034.580000</v>
+        <v>-1034.58</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>23580.423087</v>
+        <v>23580.423086999999</v>
       </c>
       <c r="CD14" s="1">
-        <v>6.550118</v>
+        <v>6.5501180000000003</v>
       </c>
       <c r="CE14" s="1">
-        <v>1978.520000</v>
+        <v>1978.52</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1582.130000</v>
+        <v>-1582.13</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>23408.394177</v>
+        <v>23408.394176999998</v>
       </c>
       <c r="B15" s="1">
         <v>6.502332</v>
       </c>
       <c r="C15" s="1">
-        <v>903.237000</v>
+        <v>903.23699999999997</v>
       </c>
       <c r="D15" s="1">
-        <v>-196.699000</v>
+        <v>-196.69900000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>23418.827988</v>
+        <v>23418.827988000001</v>
       </c>
       <c r="G15" s="1">
-        <v>6.505230</v>
+        <v>6.5052300000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>920.052000</v>
+        <v>920.05200000000002</v>
       </c>
       <c r="I15" s="1">
-        <v>-166.615000</v>
+        <v>-166.61500000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
         <v>23429.631877</v>
       </c>
       <c r="L15" s="1">
-        <v>6.508231</v>
+        <v>6.5082310000000003</v>
       </c>
       <c r="M15" s="1">
-        <v>941.633000</v>
+        <v>941.63300000000004</v>
       </c>
       <c r="N15" s="1">
-        <v>-118.982000</v>
+        <v>-118.982</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>23439.868279</v>
+        <v>23439.868278999998</v>
       </c>
       <c r="Q15" s="1">
-        <v>6.511075</v>
+        <v>6.5110749999999999</v>
       </c>
       <c r="R15" s="1">
-        <v>948.170000</v>
+        <v>948.17</v>
       </c>
       <c r="S15" s="1">
-        <v>-104.387000</v>
+        <v>-104.387</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>23450.122570</v>
+        <v>23450.12257</v>
       </c>
       <c r="V15" s="1">
-        <v>6.513923</v>
+        <v>6.5139230000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>954.568000</v>
+        <v>954.56799999999998</v>
       </c>
       <c r="X15" s="1">
-        <v>-90.374300</v>
+        <v>-90.374300000000005</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
         <v>23460.261821</v>
       </c>
       <c r="AA15" s="1">
-        <v>6.516739</v>
+        <v>6.5167390000000003</v>
       </c>
       <c r="AB15" s="1">
-        <v>961.590000</v>
+        <v>961.59</v>
       </c>
       <c r="AC15" s="1">
-        <v>-80.560300</v>
+        <v>-80.560299999999998</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>23470.466511</v>
+        <v>23470.466510999999</v>
       </c>
       <c r="AF15" s="1">
-        <v>6.519574</v>
+        <v>6.5195740000000004</v>
       </c>
       <c r="AG15" s="1">
-        <v>966.642000</v>
+        <v>966.64200000000005</v>
       </c>
       <c r="AH15" s="1">
-        <v>-79.587700</v>
+        <v>-79.587699999999998</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>23480.662737</v>
+        <v>23480.662736999999</v>
       </c>
       <c r="AK15" s="1">
-        <v>6.522406</v>
+        <v>6.5224060000000001</v>
       </c>
       <c r="AL15" s="1">
-        <v>974.435000</v>
+        <v>974.43499999999995</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.286800</v>
+        <v>-87.286799999999999</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>23491.438323</v>
+        <v>23491.438322999998</v>
       </c>
       <c r="AP15" s="1">
-        <v>6.525400</v>
+        <v>6.5254000000000003</v>
       </c>
       <c r="AQ15" s="1">
-        <v>983.504000</v>
+        <v>983.50400000000002</v>
       </c>
       <c r="AR15" s="1">
-        <v>-102.190000</v>
+        <v>-102.19</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>23502.121687</v>
+        <v>23502.121686999999</v>
       </c>
       <c r="AU15" s="1">
-        <v>6.528367</v>
+        <v>6.5283670000000003</v>
       </c>
       <c r="AV15" s="1">
-        <v>994.766000</v>
+        <v>994.76599999999996</v>
       </c>
       <c r="AW15" s="1">
-        <v>-123.702000</v>
+        <v>-123.702</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
         <v>23513.902133</v>
       </c>
       <c r="AZ15" s="1">
-        <v>6.531639</v>
+        <v>6.5316390000000002</v>
       </c>
       <c r="BA15" s="1">
-        <v>1004.270000</v>
+        <v>1004.27</v>
       </c>
       <c r="BB15" s="1">
-        <v>-142.452000</v>
+        <v>-142.452</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
         <v>23524.875624</v>
       </c>
       <c r="BE15" s="1">
-        <v>6.534688</v>
+        <v>6.5346880000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1049.150000</v>
+        <v>1049.1500000000001</v>
       </c>
       <c r="BG15" s="1">
-        <v>-227.564000</v>
+        <v>-227.56399999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>23535.783177</v>
+        <v>23535.783177000001</v>
       </c>
       <c r="BJ15" s="1">
-        <v>6.537718</v>
+        <v>6.5377179999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1128.530000</v>
+        <v>1128.53</v>
       </c>
       <c r="BL15" s="1">
-        <v>-364.273000</v>
+        <v>-364.27300000000002</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>23546.955065</v>
+        <v>23546.955064999998</v>
       </c>
       <c r="BO15" s="1">
-        <v>6.540821</v>
+        <v>6.5408210000000002</v>
       </c>
       <c r="BP15" s="1">
-        <v>1260.360000</v>
+        <v>1260.3599999999999</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-575.180000</v>
+        <v>-575.17999999999995</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>23557.677547</v>
+        <v>23557.677546999999</v>
       </c>
       <c r="BT15" s="1">
-        <v>6.543799</v>
+        <v>6.5437989999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>1408.770000</v>
+        <v>1408.77</v>
       </c>
       <c r="BV15" s="1">
-        <v>-800.149000</v>
+        <v>-800.149</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>23568.945661</v>
+        <v>23568.945661000002</v>
       </c>
       <c r="BY15" s="1">
-        <v>6.546929</v>
+        <v>6.5469290000000004</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1570.560000</v>
+        <v>1570.56</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1034.660000</v>
+        <v>-1034.6600000000001</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>23581.336222</v>
+        <v>23581.336222000002</v>
       </c>
       <c r="CD15" s="1">
-        <v>6.550371</v>
+        <v>6.5503710000000002</v>
       </c>
       <c r="CE15" s="1">
-        <v>1980.550000</v>
+        <v>1980.55</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1582.370000</v>
+        <v>-1582.37</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>23408.735899</v>
+        <v>23408.735898999999</v>
       </c>
       <c r="B16" s="1">
         <v>6.502427</v>
       </c>
       <c r="C16" s="1">
-        <v>903.223000</v>
+        <v>903.22299999999996</v>
       </c>
       <c r="D16" s="1">
-        <v>-196.622000</v>
+        <v>-196.62200000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>23419.171218</v>
+        <v>23419.171217999999</v>
       </c>
       <c r="G16" s="1">
         <v>6.505325</v>
       </c>
       <c r="H16" s="1">
-        <v>920.072000</v>
+        <v>920.072</v>
       </c>
       <c r="I16" s="1">
-        <v>-166.867000</v>
+        <v>-166.86699999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>23430.047492</v>
+        <v>23430.047492000002</v>
       </c>
       <c r="L16" s="1">
-        <v>6.508347</v>
+        <v>6.5083469999999997</v>
       </c>
       <c r="M16" s="1">
-        <v>941.542000</v>
+        <v>941.54200000000003</v>
       </c>
       <c r="N16" s="1">
-        <v>-119.147000</v>
+        <v>-119.14700000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>23440.295033</v>
+        <v>23440.295032999999</v>
       </c>
       <c r="Q16" s="1">
-        <v>6.511193</v>
+        <v>6.5111929999999996</v>
       </c>
       <c r="R16" s="1">
-        <v>948.188000</v>
+        <v>948.18799999999999</v>
       </c>
       <c r="S16" s="1">
-        <v>-104.399000</v>
+        <v>-104.399</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>23450.415705</v>
+        <v>23450.415704999999</v>
       </c>
       <c r="V16" s="1">
-        <v>6.514004</v>
+        <v>6.5140039999999999</v>
       </c>
       <c r="W16" s="1">
-        <v>954.552000</v>
+        <v>954.55200000000002</v>
       </c>
       <c r="X16" s="1">
-        <v>-90.351800</v>
+        <v>-90.351799999999997</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>23460.612956</v>
+        <v>23460.612956000001</v>
       </c>
       <c r="AA16" s="1">
-        <v>6.516837</v>
+        <v>6.5168369999999998</v>
       </c>
       <c r="AB16" s="1">
-        <v>961.675000</v>
+        <v>961.67499999999995</v>
       </c>
       <c r="AC16" s="1">
-        <v>-80.575400</v>
+        <v>-80.575400000000002</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>23470.810703</v>
+        <v>23470.810702999999</v>
       </c>
       <c r="AF16" s="1">
-        <v>6.519670</v>
+        <v>6.5196699999999996</v>
       </c>
       <c r="AG16" s="1">
-        <v>966.670000</v>
+        <v>966.67</v>
       </c>
       <c r="AH16" s="1">
-        <v>-79.612200</v>
+        <v>-79.612200000000001</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>23481.009441</v>
+        <v>23481.009440999998</v>
       </c>
       <c r="AK16" s="1">
-        <v>6.522503</v>
+        <v>6.5225030000000004</v>
       </c>
       <c r="AL16" s="1">
-        <v>974.464000</v>
+        <v>974.46400000000006</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.286300</v>
+        <v>-87.286299999999997</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>23491.798915</v>
+        <v>23491.798914999999</v>
       </c>
       <c r="AP16" s="1">
-        <v>6.525500</v>
+        <v>6.5255000000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>983.526000</v>
+        <v>983.52599999999995</v>
       </c>
       <c r="AR16" s="1">
-        <v>-102.184000</v>
+        <v>-102.184</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>23502.856724</v>
+        <v>23502.856724000001</v>
       </c>
       <c r="AU16" s="1">
-        <v>6.528571</v>
+        <v>6.5285710000000003</v>
       </c>
       <c r="AV16" s="1">
-        <v>994.734000</v>
+        <v>994.73400000000004</v>
       </c>
       <c r="AW16" s="1">
-        <v>-123.721000</v>
+        <v>-123.721</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>23514.257766</v>
+        <v>23514.257765999999</v>
       </c>
       <c r="AZ16" s="1">
-        <v>6.531738</v>
+        <v>6.5317379999999998</v>
       </c>
       <c r="BA16" s="1">
-        <v>1004.250000</v>
+        <v>1004.25</v>
       </c>
       <c r="BB16" s="1">
-        <v>-142.473000</v>
+        <v>-142.47300000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
         <v>23525.235718</v>
       </c>
       <c r="BE16" s="1">
-        <v>6.534788</v>
+        <v>6.5347879999999998</v>
       </c>
       <c r="BF16" s="1">
-        <v>1049.140000</v>
+        <v>1049.1400000000001</v>
       </c>
       <c r="BG16" s="1">
-        <v>-227.571000</v>
+        <v>-227.571</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>23536.160600</v>
+        <v>23536.160599999999</v>
       </c>
       <c r="BJ16" s="1">
-        <v>6.537822</v>
+        <v>6.5378220000000002</v>
       </c>
       <c r="BK16" s="1">
-        <v>1128.530000</v>
+        <v>1128.53</v>
       </c>
       <c r="BL16" s="1">
-        <v>-364.278000</v>
+        <v>-364.27800000000002</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>23547.657897</v>
+        <v>23547.657897000001</v>
       </c>
       <c r="BO16" s="1">
-        <v>6.541016</v>
+        <v>6.5410159999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1260.390000</v>
+        <v>1260.3900000000001</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-575.218000</v>
+        <v>-575.21799999999996</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>23558.399754</v>
+        <v>23558.399753999998</v>
       </c>
       <c r="BT16" s="1">
-        <v>6.544000</v>
+        <v>6.5439999999999996</v>
       </c>
       <c r="BU16" s="1">
-        <v>1408.620000</v>
+        <v>1408.62</v>
       </c>
       <c r="BV16" s="1">
-        <v>-800.143000</v>
+        <v>-800.14300000000003</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
         <v>23569.082564</v>
       </c>
       <c r="BY16" s="1">
-        <v>6.546967</v>
+        <v>6.5469670000000004</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1570.370000</v>
+        <v>1570.37</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1034.800000</v>
+        <v>-1034.8</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>23581.513790</v>
+        <v>23581.513790000001</v>
       </c>
       <c r="CD16" s="1">
-        <v>6.550420</v>
+        <v>6.5504199999999999</v>
       </c>
       <c r="CE16" s="1">
-        <v>1978.570000</v>
+        <v>1978.57</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1583.230000</v>
+        <v>-1583.23</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>23409.153556</v>
+        <v>23409.153556000001</v>
       </c>
       <c r="B17" s="1">
-        <v>6.502543</v>
+        <v>6.5025430000000002</v>
       </c>
       <c r="C17" s="1">
-        <v>903.175000</v>
+        <v>903.17499999999995</v>
       </c>
       <c r="D17" s="1">
-        <v>-196.589000</v>
+        <v>-196.589</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>23419.587401</v>
+        <v>23419.587401000001</v>
       </c>
       <c r="G17" s="1">
-        <v>6.505441</v>
+        <v>6.5054410000000003</v>
       </c>
       <c r="H17" s="1">
-        <v>920.136000</v>
+        <v>920.13599999999997</v>
       </c>
       <c r="I17" s="1">
-        <v>-166.577000</v>
+        <v>-166.577</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>23430.348101</v>
       </c>
       <c r="L17" s="1">
-        <v>6.508430</v>
+        <v>6.5084299999999997</v>
       </c>
       <c r="M17" s="1">
-        <v>941.471000</v>
+        <v>941.471</v>
       </c>
       <c r="N17" s="1">
-        <v>-119.331000</v>
+        <v>-119.331</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>23440.575574</v>
+        <v>23440.575573999999</v>
       </c>
       <c r="Q17" s="1">
-        <v>6.511271</v>
+        <v>6.5112709999999998</v>
       </c>
       <c r="R17" s="1">
-        <v>948.176000</v>
+        <v>948.17600000000004</v>
       </c>
       <c r="S17" s="1">
-        <v>-104.423000</v>
+        <v>-104.423</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>23450.761945</v>
+        <v>23450.761944999998</v>
       </c>
       <c r="V17" s="1">
-        <v>6.514101</v>
+        <v>6.5141010000000001</v>
       </c>
       <c r="W17" s="1">
-        <v>954.521000</v>
+        <v>954.52099999999996</v>
       </c>
       <c r="X17" s="1">
-        <v>-90.320400</v>
+        <v>-90.320400000000006</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>23460.961675</v>
+        <v>23460.961674999999</v>
       </c>
       <c r="AA17" s="1">
         <v>6.516934</v>
       </c>
       <c r="AB17" s="1">
-        <v>961.702000</v>
+        <v>961.702</v>
       </c>
       <c r="AC17" s="1">
-        <v>-80.569500</v>
+        <v>-80.569500000000005</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>23471.153439</v>
+        <v>23471.153439000002</v>
       </c>
       <c r="AF17" s="1">
-        <v>6.519765</v>
+        <v>6.5197649999999996</v>
       </c>
       <c r="AG17" s="1">
-        <v>966.656000</v>
+        <v>966.65599999999995</v>
       </c>
       <c r="AH17" s="1">
-        <v>-79.632000</v>
+        <v>-79.632000000000005</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>23481.707312</v>
+        <v>23481.707311999999</v>
       </c>
       <c r="AK17" s="1">
-        <v>6.522696</v>
+        <v>6.5226959999999998</v>
       </c>
       <c r="AL17" s="1">
-        <v>974.461000</v>
+        <v>974.46100000000001</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.271400</v>
+        <v>-87.2714</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>23492.523088</v>
+        <v>23492.523088000002</v>
       </c>
       <c r="AP17" s="1">
-        <v>6.525701</v>
+        <v>6.5257009999999998</v>
       </c>
       <c r="AQ17" s="1">
-        <v>983.533000</v>
+        <v>983.53300000000002</v>
       </c>
       <c r="AR17" s="1">
-        <v>-102.183000</v>
+        <v>-102.18300000000001</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>23503.236200</v>
+        <v>23503.236199999999</v>
       </c>
       <c r="AU17" s="1">
-        <v>6.528677</v>
+        <v>6.5286770000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>994.747000</v>
+        <v>994.74699999999996</v>
       </c>
       <c r="AW17" s="1">
-        <v>-123.709000</v>
+        <v>-123.709</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>23514.616868</v>
+        <v>23514.616868000001</v>
       </c>
       <c r="AZ17" s="1">
-        <v>6.531838</v>
+        <v>6.5318379999999996</v>
       </c>
       <c r="BA17" s="1">
-        <v>1004.250000</v>
+        <v>1004.25</v>
       </c>
       <c r="BB17" s="1">
-        <v>-142.471000</v>
+        <v>-142.471</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>23525.598294</v>
+        <v>23525.598293999999</v>
       </c>
       <c r="BE17" s="1">
-        <v>6.534888</v>
+        <v>6.5348879999999996</v>
       </c>
       <c r="BF17" s="1">
-        <v>1049.160000</v>
+        <v>1049.1600000000001</v>
       </c>
       <c r="BG17" s="1">
-        <v>-227.580000</v>
+        <v>-227.58</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>23536.864455</v>
+        <v>23536.864454999999</v>
       </c>
       <c r="BJ17" s="1">
-        <v>6.538018</v>
+        <v>6.5380180000000001</v>
       </c>
       <c r="BK17" s="1">
-        <v>1128.550000</v>
+        <v>1128.55</v>
       </c>
       <c r="BL17" s="1">
-        <v>-364.278000</v>
+        <v>-364.27800000000002</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>23547.772442</v>
+        <v>23547.772442000001</v>
       </c>
       <c r="BO17" s="1">
         <v>6.541048</v>
       </c>
       <c r="BP17" s="1">
-        <v>1260.360000</v>
+        <v>1260.3599999999999</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-575.154000</v>
+        <v>-575.154</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>23558.507882</v>
+        <v>23558.507882000002</v>
       </c>
       <c r="BT17" s="1">
-        <v>6.544030</v>
+        <v>6.5440300000000002</v>
       </c>
       <c r="BU17" s="1">
-        <v>1408.710000</v>
+        <v>1408.71</v>
       </c>
       <c r="BV17" s="1">
-        <v>-800.324000</v>
+        <v>-800.32399999999996</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>23569.504188</v>
+        <v>23569.504187999999</v>
       </c>
       <c r="BY17" s="1">
-        <v>6.547084</v>
+        <v>6.5470839999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1570.630000</v>
+        <v>1570.63</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1034.740000</v>
+        <v>-1034.74</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>23582.039585</v>
+        <v>23582.039584999999</v>
       </c>
       <c r="CD17" s="1">
         <v>6.550567</v>
       </c>
       <c r="CE17" s="1">
-        <v>1978.700000</v>
+        <v>1978.7</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1582.770000</v>
+        <v>-1582.77</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
         <v>23409.444207</v>
       </c>
       <c r="B18" s="1">
-        <v>6.502623</v>
+        <v>6.5026229999999998</v>
       </c>
       <c r="C18" s="1">
-        <v>903.346000</v>
+        <v>903.346</v>
       </c>
       <c r="D18" s="1">
-        <v>-196.618000</v>
+        <v>-196.61799999999999</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>23419.867105</v>
+        <v>23419.867105000001</v>
       </c>
       <c r="G18" s="1">
-        <v>6.505519</v>
+        <v>6.5055189999999996</v>
       </c>
       <c r="H18" s="1">
-        <v>920.314000</v>
+        <v>920.31399999999996</v>
       </c>
       <c r="I18" s="1">
-        <v>-166.487000</v>
+        <v>-166.48699999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>23430.691795</v>
+        <v>23430.691794999999</v>
       </c>
       <c r="L18" s="1">
-        <v>6.508525</v>
+        <v>6.5085249999999997</v>
       </c>
       <c r="M18" s="1">
-        <v>941.364000</v>
+        <v>941.36400000000003</v>
       </c>
       <c r="N18" s="1">
-        <v>-119.554000</v>
+        <v>-119.554</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>23440.921783</v>
+        <v>23440.921783000002</v>
       </c>
       <c r="Q18" s="1">
-        <v>6.511367</v>
+        <v>6.5113669999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>948.148000</v>
+        <v>948.14800000000002</v>
       </c>
       <c r="S18" s="1">
-        <v>-104.424000</v>
+        <v>-104.42400000000001</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>23451.101672</v>
+        <v>23451.101672000001</v>
       </c>
       <c r="V18" s="1">
         <v>6.514195</v>
       </c>
       <c r="W18" s="1">
-        <v>954.531000</v>
+        <v>954.53099999999995</v>
       </c>
       <c r="X18" s="1">
-        <v>-90.364300</v>
+        <v>-90.3643</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>23461.657072</v>
+        <v>23461.657072000002</v>
       </c>
       <c r="AA18" s="1">
-        <v>6.517127</v>
+        <v>6.5171270000000003</v>
       </c>
       <c r="AB18" s="1">
-        <v>961.722000</v>
+        <v>961.72199999999998</v>
       </c>
       <c r="AC18" s="1">
-        <v>-80.515900</v>
+        <v>-80.515900000000002</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>23471.842185</v>
+        <v>23471.842185000001</v>
       </c>
       <c r="AF18" s="1">
-        <v>6.519956</v>
+        <v>6.5199559999999996</v>
       </c>
       <c r="AG18" s="1">
-        <v>966.630000</v>
+        <v>966.63</v>
       </c>
       <c r="AH18" s="1">
-        <v>-79.585400</v>
+        <v>-79.585400000000007</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>23482.054512</v>
+        <v>23482.054511999999</v>
       </c>
       <c r="AK18" s="1">
-        <v>6.522793</v>
+        <v>6.5227930000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>974.465000</v>
+        <v>974.46500000000003</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.306600</v>
+        <v>-87.306600000000003</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
         <v>23492.901521</v>
       </c>
       <c r="AP18" s="1">
-        <v>6.525806</v>
+        <v>6.5258060000000002</v>
       </c>
       <c r="AQ18" s="1">
-        <v>983.512000</v>
+        <v>983.51199999999994</v>
       </c>
       <c r="AR18" s="1">
-        <v>-102.167000</v>
+        <v>-102.167</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>23503.605187</v>
+        <v>23503.605187000001</v>
       </c>
       <c r="AU18" s="1">
-        <v>6.528779</v>
+        <v>6.5287790000000001</v>
       </c>
       <c r="AV18" s="1">
-        <v>994.745000</v>
+        <v>994.745</v>
       </c>
       <c r="AW18" s="1">
-        <v>-123.692000</v>
+        <v>-123.69199999999999</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>23515.284483</v>
+        <v>23515.284482999999</v>
       </c>
       <c r="AZ18" s="1">
-        <v>6.532023</v>
+        <v>6.5320229999999997</v>
       </c>
       <c r="BA18" s="1">
-        <v>1004.270000</v>
+        <v>1004.27</v>
       </c>
       <c r="BB18" s="1">
-        <v>-142.457000</v>
+        <v>-142.45699999999999</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>23526.256485</v>
+        <v>23526.256485000002</v>
       </c>
       <c r="BE18" s="1">
-        <v>6.535071</v>
+        <v>6.5350710000000003</v>
       </c>
       <c r="BF18" s="1">
-        <v>1049.150000</v>
+        <v>1049.1500000000001</v>
       </c>
       <c r="BG18" s="1">
-        <v>-227.581000</v>
+        <v>-227.58099999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
         <v>23537.310855</v>
       </c>
       <c r="BJ18" s="1">
-        <v>6.538142</v>
+        <v>6.5381419999999997</v>
       </c>
       <c r="BK18" s="1">
-        <v>1128.550000</v>
+        <v>1128.55</v>
       </c>
       <c r="BL18" s="1">
-        <v>-364.311000</v>
+        <v>-364.31099999999998</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>23548.199001</v>
+        <v>23548.199001000001</v>
       </c>
       <c r="BO18" s="1">
-        <v>6.541166</v>
+        <v>6.5411659999999996</v>
       </c>
       <c r="BP18" s="1">
-        <v>1260.380000</v>
+        <v>1260.3800000000001</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-575.170000</v>
+        <v>-575.16999999999996</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
         <v>23558.945322</v>
       </c>
       <c r="BT18" s="1">
-        <v>6.544151</v>
+        <v>6.5441510000000003</v>
       </c>
       <c r="BU18" s="1">
-        <v>1408.630000</v>
+        <v>1408.63</v>
       </c>
       <c r="BV18" s="1">
-        <v>-800.391000</v>
+        <v>-800.39099999999996</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>23569.924267</v>
+        <v>23569.924266999999</v>
       </c>
       <c r="BY18" s="1">
-        <v>6.547201</v>
+        <v>6.5472010000000003</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1570.460000</v>
+        <v>1570.46</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1034.660000</v>
+        <v>-1034.6600000000001</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>23582.559851</v>
+        <v>23582.559851000002</v>
       </c>
       <c r="CD18" s="1">
-        <v>6.550711</v>
+        <v>6.5507109999999997</v>
       </c>
       <c r="CE18" s="1">
-        <v>1979.660000</v>
+        <v>1979.66</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1584.010000</v>
+        <v>-1584.01</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>23409.783935</v>
+        <v>23409.783934999999</v>
       </c>
       <c r="B19" s="1">
-        <v>6.502718</v>
+        <v>6.5027179999999998</v>
       </c>
       <c r="C19" s="1">
-        <v>903.268000</v>
+        <v>903.26800000000003</v>
       </c>
       <c r="D19" s="1">
-        <v>-196.528000</v>
+        <v>-196.52799999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>23420.215299</v>
       </c>
       <c r="G19" s="1">
-        <v>6.505615</v>
+        <v>6.5056149999999997</v>
       </c>
       <c r="H19" s="1">
-        <v>920.452000</v>
+        <v>920.452</v>
       </c>
       <c r="I19" s="1">
-        <v>-166.801000</v>
+        <v>-166.80099999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>23431.037540</v>
+        <v>23431.037540000001</v>
       </c>
       <c r="L19" s="1">
-        <v>6.508622</v>
+        <v>6.5086219999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>941.321000</v>
+        <v>941.32100000000003</v>
       </c>
       <c r="N19" s="1">
-        <v>-119.914000</v>
+        <v>-119.914</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>23441.270501</v>
+        <v>23441.270500999999</v>
       </c>
       <c r="Q19" s="1">
-        <v>6.511464</v>
+        <v>6.5114640000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>948.122000</v>
+        <v>948.12199999999996</v>
       </c>
       <c r="S19" s="1">
-        <v>-104.370000</v>
+        <v>-104.37</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>23451.790151</v>
+        <v>23451.790151000001</v>
       </c>
       <c r="V19" s="1">
         <v>6.514386</v>
       </c>
       <c r="W19" s="1">
-        <v>954.509000</v>
+        <v>954.50900000000001</v>
       </c>
       <c r="X19" s="1">
-        <v>-90.348800</v>
+        <v>-90.348799999999997</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
         <v>23462.004235</v>
       </c>
       <c r="AA19" s="1">
-        <v>6.517223</v>
+        <v>6.5172230000000004</v>
       </c>
       <c r="AB19" s="1">
-        <v>961.663000</v>
+        <v>961.66300000000001</v>
       </c>
       <c r="AC19" s="1">
-        <v>-80.466100</v>
+        <v>-80.466099999999997</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>23472.181678</v>
+        <v>23472.181678000001</v>
       </c>
       <c r="AF19" s="1">
-        <v>6.520050</v>
+        <v>6.5200500000000003</v>
       </c>
       <c r="AG19" s="1">
-        <v>966.576000</v>
+        <v>966.57600000000002</v>
       </c>
       <c r="AH19" s="1">
-        <v>-79.619800</v>
+        <v>-79.619799999999998</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>23482.404191</v>
+        <v>23482.404191000001</v>
       </c>
       <c r="AK19" s="1">
-        <v>6.522890</v>
+        <v>6.5228900000000003</v>
       </c>
       <c r="AL19" s="1">
-        <v>974.463000</v>
+        <v>974.46299999999997</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.297400</v>
+        <v>-87.297399999999996</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>23493.289392</v>
+        <v>23493.289391999999</v>
       </c>
       <c r="AP19" s="1">
-        <v>6.525914</v>
+        <v>6.5259140000000002</v>
       </c>
       <c r="AQ19" s="1">
-        <v>983.510000</v>
+        <v>983.51</v>
       </c>
       <c r="AR19" s="1">
-        <v>-102.149000</v>
+        <v>-102.149</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>23504.272576</v>
+        <v>23504.272575999999</v>
       </c>
       <c r="AU19" s="1">
-        <v>6.528965</v>
+        <v>6.5289650000000004</v>
       </c>
       <c r="AV19" s="1">
-        <v>994.758000</v>
+        <v>994.75800000000004</v>
       </c>
       <c r="AW19" s="1">
-        <v>-123.709000</v>
+        <v>-123.709</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>23515.725429</v>
+        <v>23515.725428999998</v>
       </c>
       <c r="AZ19" s="1">
         <v>6.532146</v>
       </c>
       <c r="BA19" s="1">
-        <v>1004.270000</v>
+        <v>1004.27</v>
       </c>
       <c r="BB19" s="1">
-        <v>-142.451000</v>
+        <v>-142.45099999999999</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>23526.712805</v>
+        <v>23526.712804999999</v>
       </c>
       <c r="BE19" s="1">
-        <v>6.535198</v>
+        <v>6.5351980000000003</v>
       </c>
       <c r="BF19" s="1">
-        <v>1049.150000</v>
+        <v>1049.1500000000001</v>
       </c>
       <c r="BG19" s="1">
-        <v>-227.589000</v>
+        <v>-227.589</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>23537.715590</v>
+        <v>23537.71559</v>
       </c>
       <c r="BJ19" s="1">
-        <v>6.538254</v>
+        <v>6.5382540000000002</v>
       </c>
       <c r="BK19" s="1">
-        <v>1128.570000</v>
+        <v>1128.57</v>
       </c>
       <c r="BL19" s="1">
-        <v>-364.289000</v>
+        <v>-364.28899999999999</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>23548.594313</v>
+        <v>23548.594313000001</v>
       </c>
       <c r="BO19" s="1">
-        <v>6.541276</v>
+        <v>6.5412759999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1260.370000</v>
+        <v>1260.3699999999999</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-575.197000</v>
+        <v>-575.197</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>23559.359018</v>
+        <v>23559.359017999999</v>
       </c>
       <c r="BT19" s="1">
-        <v>6.544266</v>
+        <v>6.5442660000000004</v>
       </c>
       <c r="BU19" s="1">
-        <v>1408.570000</v>
+        <v>1408.57</v>
       </c>
       <c r="BV19" s="1">
-        <v>-800.407000</v>
+        <v>-800.40700000000004</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
         <v>23570.381083</v>
       </c>
       <c r="BY19" s="1">
-        <v>6.547328</v>
+        <v>6.5473280000000003</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1570.530000</v>
+        <v>1570.53</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1034.670000</v>
+        <v>-1034.67</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>23583.076188</v>
+        <v>23583.076187999999</v>
       </c>
       <c r="CD19" s="1">
-        <v>6.550854</v>
+        <v>6.5508540000000002</v>
       </c>
       <c r="CE19" s="1">
-        <v>1978.850000</v>
+        <v>1978.85</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1584.010000</v>
+        <v>-1584.01</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
         <v>23410.125183</v>
       </c>
       <c r="B20" s="1">
-        <v>6.502813</v>
+        <v>6.5028129999999997</v>
       </c>
       <c r="C20" s="1">
-        <v>903.272000</v>
+        <v>903.27200000000005</v>
       </c>
       <c r="D20" s="1">
-        <v>-196.684000</v>
+        <v>-196.684</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>23420.555089</v>
+        <v>23420.555089000001</v>
       </c>
       <c r="G20" s="1">
-        <v>6.505710</v>
+        <v>6.5057099999999997</v>
       </c>
       <c r="H20" s="1">
-        <v>920.408000</v>
+        <v>920.40800000000002</v>
       </c>
       <c r="I20" s="1">
-        <v>-166.452000</v>
+        <v>-166.452</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>23431.726978</v>
+        <v>23431.726977999999</v>
       </c>
       <c r="L20" s="1">
         <v>6.508813</v>
       </c>
       <c r="M20" s="1">
-        <v>941.449000</v>
+        <v>941.44899999999996</v>
       </c>
       <c r="N20" s="1">
-        <v>-119.849000</v>
+        <v>-119.849</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
         <v>23441.958422</v>
       </c>
       <c r="Q20" s="1">
-        <v>6.511655</v>
+        <v>6.5116550000000002</v>
       </c>
       <c r="R20" s="1">
-        <v>948.170000</v>
+        <v>948.17</v>
       </c>
       <c r="S20" s="1">
-        <v>-104.354000</v>
+        <v>-104.354</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>23452.131400</v>
+        <v>23452.131399999998</v>
       </c>
       <c r="V20" s="1">
         <v>6.514481</v>
       </c>
       <c r="W20" s="1">
-        <v>954.582000</v>
+        <v>954.58199999999999</v>
       </c>
       <c r="X20" s="1">
-        <v>-90.328900</v>
+        <v>-90.328900000000004</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
         <v>23462.351466</v>
       </c>
       <c r="AA20" s="1">
-        <v>6.517320</v>
+        <v>6.5173199999999998</v>
       </c>
       <c r="AB20" s="1">
-        <v>961.728000</v>
+        <v>961.72799999999995</v>
       </c>
       <c r="AC20" s="1">
-        <v>-80.522500</v>
+        <v>-80.522499999999994</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>23472.527852</v>
+        <v>23472.527851999999</v>
       </c>
       <c r="AF20" s="1">
-        <v>6.520147</v>
+        <v>6.5201469999999997</v>
       </c>
       <c r="AG20" s="1">
-        <v>966.649000</v>
+        <v>966.649</v>
       </c>
       <c r="AH20" s="1">
-        <v>-79.605700</v>
+        <v>-79.605699999999999</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>23483.054448</v>
+        <v>23483.054447999999</v>
       </c>
       <c r="AK20" s="1">
-        <v>6.523071</v>
+        <v>6.5230709999999998</v>
       </c>
       <c r="AL20" s="1">
-        <v>974.458000</v>
+        <v>974.45799999999997</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.313800</v>
+        <v>-87.313800000000001</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>23493.834002</v>
@@ -5227,1116 +5643,1116 @@
         <v>6.526065</v>
       </c>
       <c r="AQ20" s="1">
-        <v>983.501000</v>
+        <v>983.50099999999998</v>
       </c>
       <c r="AR20" s="1">
-        <v>-102.201000</v>
+        <v>-102.20099999999999</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>23504.727137</v>
+        <v>23504.727137000002</v>
       </c>
       <c r="AU20" s="1">
-        <v>6.529091</v>
+        <v>6.5290910000000002</v>
       </c>
       <c r="AV20" s="1">
-        <v>994.743000</v>
+        <v>994.74300000000005</v>
       </c>
       <c r="AW20" s="1">
-        <v>-123.683000</v>
+        <v>-123.68300000000001</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
         <v>23516.084035</v>
       </c>
       <c r="AZ20" s="1">
-        <v>6.532246</v>
+        <v>6.5322459999999998</v>
       </c>
       <c r="BA20" s="1">
-        <v>1004.250000</v>
+        <v>1004.25</v>
       </c>
       <c r="BB20" s="1">
-        <v>-142.465000</v>
+        <v>-142.465</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>23527.065460</v>
+        <v>23527.065460000002</v>
       </c>
       <c r="BE20" s="1">
-        <v>6.535296</v>
+        <v>6.5352959999999998</v>
       </c>
       <c r="BF20" s="1">
-        <v>1049.180000</v>
+        <v>1049.18</v>
       </c>
       <c r="BG20" s="1">
-        <v>-227.566000</v>
+        <v>-227.566</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
         <v>23538.091063</v>
       </c>
       <c r="BJ20" s="1">
-        <v>6.538359</v>
+        <v>6.5383589999999998</v>
       </c>
       <c r="BK20" s="1">
-        <v>1128.560000</v>
+        <v>1128.56</v>
       </c>
       <c r="BL20" s="1">
-        <v>-364.282000</v>
+        <v>-364.28199999999998</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>23549.021404</v>
+        <v>23549.021403999999</v>
       </c>
       <c r="BO20" s="1">
-        <v>6.541395</v>
+        <v>6.5413949999999996</v>
       </c>
       <c r="BP20" s="1">
-        <v>1260.410000</v>
+        <v>1260.4100000000001</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-575.203000</v>
+        <v>-575.20299999999997</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>23559.781082</v>
+        <v>23559.781082000001</v>
       </c>
       <c r="BT20" s="1">
         <v>6.544384</v>
       </c>
       <c r="BU20" s="1">
-        <v>1408.480000</v>
+        <v>1408.48</v>
       </c>
       <c r="BV20" s="1">
-        <v>-800.403000</v>
+        <v>-800.40300000000002</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>23570.797226</v>
+        <v>23570.797225999999</v>
       </c>
       <c r="BY20" s="1">
-        <v>6.547444</v>
+        <v>6.5474439999999996</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1570.460000</v>
+        <v>1570.46</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1034.720000</v>
+        <v>-1034.72</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>23583.628233</v>
+        <v>23583.628232999999</v>
       </c>
       <c r="CD20" s="1">
-        <v>6.551008</v>
+        <v>6.5510080000000004</v>
       </c>
       <c r="CE20" s="1">
-        <v>1978.560000</v>
+        <v>1978.56</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1582.540000</v>
+        <v>-1582.54</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>23410.806190</v>
+        <v>23410.806189999999</v>
       </c>
       <c r="B21" s="1">
-        <v>6.503002</v>
+        <v>6.5030020000000004</v>
       </c>
       <c r="C21" s="1">
-        <v>903.188000</v>
+        <v>903.18799999999999</v>
       </c>
       <c r="D21" s="1">
-        <v>-196.700000</v>
+        <v>-196.7</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>23421.246654</v>
+        <v>23421.246653999999</v>
       </c>
       <c r="G21" s="1">
-        <v>6.505902</v>
+        <v>6.5059019999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>919.935000</v>
+        <v>919.93499999999995</v>
       </c>
       <c r="I21" s="1">
-        <v>-166.703000</v>
+        <v>-166.703</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>23432.071700</v>
+        <v>23432.0717</v>
       </c>
       <c r="L21" s="1">
-        <v>6.508909</v>
+        <v>6.5089090000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>941.626000</v>
+        <v>941.62599999999998</v>
       </c>
       <c r="N21" s="1">
-        <v>-119.890000</v>
+        <v>-119.89</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>23442.317060</v>
+        <v>23442.317060000001</v>
       </c>
       <c r="Q21" s="1">
         <v>6.511755</v>
       </c>
       <c r="R21" s="1">
-        <v>948.202000</v>
+        <v>948.202</v>
       </c>
       <c r="S21" s="1">
-        <v>-104.346000</v>
+        <v>-104.346</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>23452.477230</v>
+        <v>23452.47723</v>
       </c>
       <c r="V21" s="1">
-        <v>6.514577</v>
+        <v>6.5145770000000001</v>
       </c>
       <c r="W21" s="1">
-        <v>954.596000</v>
+        <v>954.596</v>
       </c>
       <c r="X21" s="1">
-        <v>-90.399700</v>
+        <v>-90.399699999999996</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>23463.015080</v>
+        <v>23463.015080000001</v>
       </c>
       <c r="AA21" s="1">
-        <v>6.517504</v>
+        <v>6.5175039999999997</v>
       </c>
       <c r="AB21" s="1">
-        <v>961.732000</v>
+        <v>961.73199999999997</v>
       </c>
       <c r="AC21" s="1">
-        <v>-80.573100</v>
+        <v>-80.573099999999997</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
         <v>23473.174636</v>
       </c>
       <c r="AF21" s="1">
-        <v>6.520326</v>
+        <v>6.5203259999999998</v>
       </c>
       <c r="AG21" s="1">
-        <v>966.602000</v>
+        <v>966.60199999999998</v>
       </c>
       <c r="AH21" s="1">
-        <v>-79.625700</v>
+        <v>-79.625699999999995</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>23483.449758</v>
+        <v>23483.449757999999</v>
       </c>
       <c r="AK21" s="1">
-        <v>6.523180</v>
+        <v>6.52318</v>
       </c>
       <c r="AL21" s="1">
-        <v>974.454000</v>
+        <v>974.45399999999995</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.278100</v>
+        <v>-87.278099999999995</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
         <v>23494.008628</v>
       </c>
       <c r="AP21" s="1">
-        <v>6.526114</v>
+        <v>6.5261139999999997</v>
       </c>
       <c r="AQ21" s="1">
-        <v>983.513000</v>
+        <v>983.51300000000003</v>
       </c>
       <c r="AR21" s="1">
-        <v>-102.181000</v>
+        <v>-102.181</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>23505.094177</v>
+        <v>23505.094176999999</v>
       </c>
       <c r="AU21" s="1">
-        <v>6.529193</v>
+        <v>6.5291930000000002</v>
       </c>
       <c r="AV21" s="1">
-        <v>994.743000</v>
+        <v>994.74300000000005</v>
       </c>
       <c r="AW21" s="1">
-        <v>-123.698000</v>
+        <v>-123.69799999999999</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>23516.444131</v>
       </c>
       <c r="AZ21" s="1">
-        <v>6.532346</v>
+        <v>6.5323460000000004</v>
       </c>
       <c r="BA21" s="1">
-        <v>1004.250000</v>
+        <v>1004.25</v>
       </c>
       <c r="BB21" s="1">
-        <v>-142.450000</v>
+        <v>-142.44999999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>23527.438947</v>
+        <v>23527.438946999999</v>
       </c>
       <c r="BE21" s="1">
-        <v>6.535400</v>
+        <v>6.5354000000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1049.160000</v>
+        <v>1049.1600000000001</v>
       </c>
       <c r="BG21" s="1">
-        <v>-227.586000</v>
+        <v>-227.58600000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>23538.507669</v>
+        <v>23538.507668999999</v>
       </c>
       <c r="BJ21" s="1">
-        <v>6.538474</v>
+        <v>6.5384739999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1128.560000</v>
+        <v>1128.56</v>
       </c>
       <c r="BL21" s="1">
-        <v>-364.286000</v>
+        <v>-364.286</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>23549.414694</v>
+        <v>23549.414693999999</v>
       </c>
       <c r="BO21" s="1">
-        <v>6.541504</v>
+        <v>6.5415039999999998</v>
       </c>
       <c r="BP21" s="1">
-        <v>1260.370000</v>
+        <v>1260.3699999999999</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-575.207000</v>
+        <v>-575.20699999999999</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>23560.192301</v>
+        <v>23560.192300999999</v>
       </c>
       <c r="BT21" s="1">
-        <v>6.544498</v>
+        <v>6.5444979999999999</v>
       </c>
       <c r="BU21" s="1">
-        <v>1408.530000</v>
+        <v>1408.53</v>
       </c>
       <c r="BV21" s="1">
-        <v>-800.512000</v>
+        <v>-800.51199999999994</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
         <v>23571.253547</v>
       </c>
       <c r="BY21" s="1">
-        <v>6.547570</v>
+        <v>6.5475700000000003</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1570.350000</v>
+        <v>1570.35</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1034.790000</v>
+        <v>-1034.79</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>23584.158456</v>
+        <v>23584.158456000001</v>
       </c>
       <c r="CD21" s="1">
-        <v>6.551155</v>
+        <v>6.5511549999999996</v>
       </c>
       <c r="CE21" s="1">
-        <v>1979.080000</v>
+        <v>1979.08</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1583.980000</v>
+        <v>-1583.98</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
         <v>23411.148458</v>
       </c>
       <c r="B22" s="1">
-        <v>6.503097</v>
+        <v>6.5030970000000003</v>
       </c>
       <c r="C22" s="1">
-        <v>903.370000</v>
+        <v>903.37</v>
       </c>
       <c r="D22" s="1">
-        <v>-196.544000</v>
+        <v>-196.54400000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>23421.592191</v>
       </c>
       <c r="G22" s="1">
-        <v>6.505998</v>
+        <v>6.5059979999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>920.392000</v>
+        <v>920.39200000000005</v>
       </c>
       <c r="I22" s="1">
-        <v>-166.662000</v>
+        <v>-166.66200000000001</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>23432.420353</v>
+        <v>23432.420353000001</v>
       </c>
       <c r="L22" s="1">
-        <v>6.509006</v>
+        <v>6.5090060000000003</v>
       </c>
       <c r="M22" s="1">
-        <v>941.464000</v>
+        <v>941.46400000000006</v>
       </c>
       <c r="N22" s="1">
-        <v>-119.908000</v>
+        <v>-119.908</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
         <v>23442.968772</v>
       </c>
       <c r="Q22" s="1">
-        <v>6.511936</v>
+        <v>6.5119360000000004</v>
       </c>
       <c r="R22" s="1">
-        <v>948.174000</v>
+        <v>948.17399999999998</v>
       </c>
       <c r="S22" s="1">
-        <v>-104.435000</v>
+        <v>-104.435</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
         <v>23453.126343</v>
       </c>
       <c r="V22" s="1">
-        <v>6.514757</v>
+        <v>6.5147570000000004</v>
       </c>
       <c r="W22" s="1">
-        <v>954.554000</v>
+        <v>954.55399999999997</v>
       </c>
       <c r="X22" s="1">
-        <v>-90.352700</v>
+        <v>-90.352699999999999</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
         <v>23463.398019</v>
       </c>
       <c r="AA22" s="1">
-        <v>6.517611</v>
+        <v>6.5176109999999996</v>
       </c>
       <c r="AB22" s="1">
-        <v>961.782000</v>
+        <v>961.78200000000004</v>
       </c>
       <c r="AC22" s="1">
-        <v>-80.521600</v>
+        <v>-80.521600000000007</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>23473.556058</v>
+        <v>23473.556057999998</v>
       </c>
       <c r="AF22" s="1">
-        <v>6.520432</v>
+        <v>6.5204319999999996</v>
       </c>
       <c r="AG22" s="1">
-        <v>966.639000</v>
+        <v>966.63900000000001</v>
       </c>
       <c r="AH22" s="1">
-        <v>-79.630800</v>
+        <v>-79.630799999999994</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>23483.799933</v>
+        <v>23483.799932999998</v>
       </c>
       <c r="AK22" s="1">
-        <v>6.523278</v>
+        <v>6.5232780000000004</v>
       </c>
       <c r="AL22" s="1">
-        <v>974.462000</v>
+        <v>974.46199999999999</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.264200</v>
+        <v>-87.264200000000002</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>23494.373479</v>
+        <v>23494.373479000002</v>
       </c>
       <c r="AP22" s="1">
-        <v>6.526215</v>
+        <v>6.5262149999999997</v>
       </c>
       <c r="AQ22" s="1">
-        <v>983.526000</v>
+        <v>983.52599999999995</v>
       </c>
       <c r="AR22" s="1">
-        <v>-102.201000</v>
+        <v>-102.20099999999999</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>23505.457777</v>
       </c>
       <c r="AU22" s="1">
-        <v>6.529294</v>
+        <v>6.5292940000000002</v>
       </c>
       <c r="AV22" s="1">
-        <v>994.740000</v>
+        <v>994.74</v>
       </c>
       <c r="AW22" s="1">
-        <v>-123.719000</v>
+        <v>-123.71899999999999</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>23516.860802</v>
+        <v>23516.860801999999</v>
       </c>
       <c r="AZ22" s="1">
-        <v>6.532461</v>
+        <v>6.5324609999999996</v>
       </c>
       <c r="BA22" s="1">
-        <v>1004.260000</v>
+        <v>1004.26</v>
       </c>
       <c r="BB22" s="1">
-        <v>-142.443000</v>
+        <v>-142.44300000000001</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>23527.853652</v>
+        <v>23527.853652000002</v>
       </c>
       <c r="BE22" s="1">
-        <v>6.535515</v>
+        <v>6.5355150000000002</v>
       </c>
       <c r="BF22" s="1">
-        <v>1049.170000</v>
+        <v>1049.17</v>
       </c>
       <c r="BG22" s="1">
-        <v>-227.582000</v>
+        <v>-227.58199999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>23538.864789</v>
+        <v>23538.864788999999</v>
       </c>
       <c r="BJ22" s="1">
-        <v>6.538574</v>
+        <v>6.5385739999999997</v>
       </c>
       <c r="BK22" s="1">
-        <v>1128.530000</v>
+        <v>1128.53</v>
       </c>
       <c r="BL22" s="1">
-        <v>-364.312000</v>
+        <v>-364.31200000000001</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
         <v>23549.835302</v>
       </c>
       <c r="BO22" s="1">
-        <v>6.541621</v>
+        <v>6.5416210000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1260.370000</v>
+        <v>1260.3699999999999</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-575.179000</v>
+        <v>-575.17899999999997</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>23560.602456</v>
+        <v>23560.602456000001</v>
       </c>
       <c r="BT22" s="1">
-        <v>6.544612</v>
+        <v>6.5446119999999999</v>
       </c>
       <c r="BU22" s="1">
-        <v>1408.430000</v>
+        <v>1408.43</v>
       </c>
       <c r="BV22" s="1">
-        <v>-800.466000</v>
+        <v>-800.46600000000001</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>23571.700452</v>
+        <v>23571.700452000001</v>
       </c>
       <c r="BY22" s="1">
         <v>6.547695</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1570.570000</v>
+        <v>1570.57</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1034.750000</v>
+        <v>-1034.75</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>23584.675288</v>
+        <v>23584.675287999999</v>
       </c>
       <c r="CD22" s="1">
-        <v>6.551299</v>
+        <v>6.5512990000000002</v>
       </c>
       <c r="CE22" s="1">
-        <v>1978.630000</v>
+        <v>1978.63</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1583.650000</v>
+        <v>-1583.65</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>23411.492652</v>
+        <v>23411.492652000001</v>
       </c>
       <c r="B23" s="1">
-        <v>6.503192</v>
+        <v>6.5031920000000003</v>
       </c>
       <c r="C23" s="1">
-        <v>903.394000</v>
+        <v>903.39400000000001</v>
       </c>
       <c r="D23" s="1">
-        <v>-196.681000</v>
+        <v>-196.68100000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>23421.935918</v>
+        <v>23421.935917999999</v>
       </c>
       <c r="G23" s="1">
-        <v>6.506093</v>
+        <v>6.5060929999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>919.976000</v>
+        <v>919.976</v>
       </c>
       <c r="I23" s="1">
-        <v>-166.139000</v>
+        <v>-166.13900000000001</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>23433.076560</v>
+        <v>23433.076560000001</v>
       </c>
       <c r="L23" s="1">
         <v>6.509188</v>
       </c>
       <c r="M23" s="1">
-        <v>941.756000</v>
+        <v>941.75599999999997</v>
       </c>
       <c r="N23" s="1">
-        <v>-119.925000</v>
+        <v>-119.925</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
         <v>23443.363621</v>
       </c>
       <c r="Q23" s="1">
-        <v>6.512045</v>
+        <v>6.5120449999999996</v>
       </c>
       <c r="R23" s="1">
-        <v>948.136000</v>
+        <v>948.13599999999997</v>
       </c>
       <c r="S23" s="1">
-        <v>-104.418000</v>
+        <v>-104.41800000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
         <v>23453.506277</v>
       </c>
       <c r="V23" s="1">
-        <v>6.514863</v>
+        <v>6.5148630000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>954.581000</v>
+        <v>954.58100000000002</v>
       </c>
       <c r="X23" s="1">
-        <v>-90.407900</v>
+        <v>-90.407899999999998</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>23463.755608</v>
+        <v>23463.755607999999</v>
       </c>
       <c r="AA23" s="1">
-        <v>6.517710</v>
+        <v>6.5177100000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>961.651000</v>
+        <v>961.65099999999995</v>
       </c>
       <c r="AC23" s="1">
-        <v>-80.529700</v>
+        <v>-80.529700000000005</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>23473.898832</v>
+        <v>23473.898831999999</v>
       </c>
       <c r="AF23" s="1">
-        <v>6.520527</v>
+        <v>6.5205270000000004</v>
       </c>
       <c r="AG23" s="1">
-        <v>966.641000</v>
+        <v>966.64099999999996</v>
       </c>
       <c r="AH23" s="1">
-        <v>-79.624300</v>
+        <v>-79.624300000000005</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>23484.149117</v>
+        <v>23484.149117000001</v>
       </c>
       <c r="AK23" s="1">
-        <v>6.523375</v>
+        <v>6.5233749999999997</v>
       </c>
       <c r="AL23" s="1">
-        <v>974.458000</v>
+        <v>974.45799999999997</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.286000</v>
+        <v>-87.286000000000001</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>23494.788303</v>
+        <v>23494.788303000001</v>
       </c>
       <c r="AP23" s="1">
-        <v>6.526330</v>
+        <v>6.5263299999999997</v>
       </c>
       <c r="AQ23" s="1">
-        <v>983.504000</v>
+        <v>983.50400000000002</v>
       </c>
       <c r="AR23" s="1">
-        <v>-102.189000</v>
+        <v>-102.18899999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>23505.881824</v>
       </c>
       <c r="AU23" s="1">
-        <v>6.529412</v>
+        <v>6.5294119999999998</v>
       </c>
       <c r="AV23" s="1">
-        <v>994.757000</v>
+        <v>994.75699999999995</v>
       </c>
       <c r="AW23" s="1">
-        <v>-123.701000</v>
+        <v>-123.70099999999999</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>23517.158866</v>
+        <v>23517.158866000002</v>
       </c>
       <c r="AZ23" s="1">
-        <v>6.532544</v>
+        <v>6.5325439999999997</v>
       </c>
       <c r="BA23" s="1">
-        <v>1004.250000</v>
+        <v>1004.25</v>
       </c>
       <c r="BB23" s="1">
-        <v>-142.484000</v>
+        <v>-142.48400000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
         <v>23528.159634</v>
       </c>
       <c r="BE23" s="1">
-        <v>6.535600</v>
+        <v>6.5355999999999996</v>
       </c>
       <c r="BF23" s="1">
-        <v>1049.200000</v>
+        <v>1049.2</v>
       </c>
       <c r="BG23" s="1">
-        <v>-227.566000</v>
+        <v>-227.566</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>23539.239764</v>
+        <v>23539.239764000002</v>
       </c>
       <c r="BJ23" s="1">
         <v>6.538678</v>
       </c>
       <c r="BK23" s="1">
-        <v>1128.550000</v>
+        <v>1128.55</v>
       </c>
       <c r="BL23" s="1">
-        <v>-364.275000</v>
+        <v>-364.27499999999998</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>23550.221190</v>
+        <v>23550.22119</v>
       </c>
       <c r="BO23" s="1">
         <v>6.541728</v>
       </c>
       <c r="BP23" s="1">
-        <v>1260.410000</v>
+        <v>1260.4100000000001</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-575.176000</v>
+        <v>-575.17600000000004</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
         <v>23561.022567</v>
       </c>
       <c r="BT23" s="1">
-        <v>6.544728</v>
+        <v>6.5447280000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>1408.350000</v>
+        <v>1408.35</v>
       </c>
       <c r="BV23" s="1">
-        <v>-800.464000</v>
+        <v>-800.46400000000006</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>23572.118568</v>
+        <v>23572.118568000002</v>
       </c>
       <c r="BY23" s="1">
-        <v>6.547811</v>
+        <v>6.5478110000000003</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1570.420000</v>
+        <v>1570.42</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1034.690000</v>
+        <v>-1034.69</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>23585.231955</v>
+        <v>23585.231954999999</v>
       </c>
       <c r="CD23" s="1">
-        <v>6.551453</v>
+        <v>6.5514530000000004</v>
       </c>
       <c r="CE23" s="1">
-        <v>1979.050000</v>
+        <v>1979.05</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1582.160000</v>
+        <v>-1582.16</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>23412.144893</v>
+        <v>23412.144893000001</v>
       </c>
       <c r="B24" s="1">
         <v>6.503374</v>
       </c>
       <c r="C24" s="1">
-        <v>903.194000</v>
+        <v>903.19399999999996</v>
       </c>
       <c r="D24" s="1">
-        <v>-196.689000</v>
+        <v>-196.68899999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>23422.583694</v>
+        <v>23422.583694000001</v>
       </c>
       <c r="G24" s="1">
-        <v>6.506273</v>
+        <v>6.5062730000000002</v>
       </c>
       <c r="H24" s="1">
-        <v>920.497000</v>
+        <v>920.49699999999996</v>
       </c>
       <c r="I24" s="1">
-        <v>-166.572000</v>
+        <v>-166.572</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>23433.455008</v>
+        <v>23433.455008000001</v>
       </c>
       <c r="L24" s="1">
-        <v>6.509293</v>
+        <v>6.5092930000000004</v>
       </c>
       <c r="M24" s="1">
-        <v>941.581000</v>
+        <v>941.58100000000002</v>
       </c>
       <c r="N24" s="1">
-        <v>-120.023000</v>
+        <v>-120.023</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>23443.712306</v>
+        <v>23443.712306000001</v>
       </c>
       <c r="Q24" s="1">
-        <v>6.512142</v>
+        <v>6.5121419999999999</v>
       </c>
       <c r="R24" s="1">
-        <v>948.153000</v>
+        <v>948.15300000000002</v>
       </c>
       <c r="S24" s="1">
-        <v>-104.372000</v>
+        <v>-104.372</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>23453.850997</v>
+        <v>23453.850997000001</v>
       </c>
       <c r="V24" s="1">
-        <v>6.514959</v>
+        <v>6.5149590000000002</v>
       </c>
       <c r="W24" s="1">
-        <v>954.577000</v>
+        <v>954.577</v>
       </c>
       <c r="X24" s="1">
-        <v>-90.374300</v>
+        <v>-90.374300000000005</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>23464.096855</v>
       </c>
       <c r="AA24" s="1">
-        <v>6.517805</v>
+        <v>6.5178050000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>961.661000</v>
+        <v>961.66099999999994</v>
       </c>
       <c r="AC24" s="1">
-        <v>-80.579400</v>
+        <v>-80.579400000000007</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
         <v>23474.242522</v>
       </c>
       <c r="AF24" s="1">
-        <v>6.520623</v>
+        <v>6.5206229999999996</v>
       </c>
       <c r="AG24" s="1">
-        <v>966.626000</v>
+        <v>966.62599999999998</v>
       </c>
       <c r="AH24" s="1">
-        <v>-79.595700</v>
+        <v>-79.595699999999994</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>23484.570221</v>
+        <v>23484.570221000002</v>
       </c>
       <c r="AK24" s="1">
-        <v>6.523492</v>
+        <v>6.5234920000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>974.441000</v>
+        <v>974.44100000000003</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.324500</v>
+        <v>-87.3245</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>23495.091360</v>
+        <v>23495.091359999999</v>
       </c>
       <c r="AP24" s="1">
-        <v>6.526414</v>
+        <v>6.5264139999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>983.523000</v>
+        <v>983.52300000000002</v>
       </c>
       <c r="AR24" s="1">
-        <v>-102.178000</v>
+        <v>-102.178</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
         <v>23506.189015</v>
       </c>
       <c r="AU24" s="1">
-        <v>6.529497</v>
+        <v>6.5294970000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>994.753000</v>
+        <v>994.75300000000004</v>
       </c>
       <c r="AW24" s="1">
-        <v>-123.694000</v>
+        <v>-123.694</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>23517.519458</v>
+        <v>23517.519457999999</v>
       </c>
       <c r="AZ24" s="1">
-        <v>6.532644</v>
+        <v>6.5326440000000003</v>
       </c>
       <c r="BA24" s="1">
-        <v>1004.240000</v>
+        <v>1004.24</v>
       </c>
       <c r="BB24" s="1">
-        <v>-142.455000</v>
+        <v>-142.45500000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
         <v>23528.752354</v>
       </c>
       <c r="BE24" s="1">
-        <v>6.535765</v>
+        <v>6.5357649999999996</v>
       </c>
       <c r="BF24" s="1">
-        <v>1049.170000</v>
+        <v>1049.17</v>
       </c>
       <c r="BG24" s="1">
-        <v>-227.579000</v>
+        <v>-227.57900000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
         <v>23539.617715</v>
       </c>
       <c r="BJ24" s="1">
-        <v>6.538783</v>
+        <v>6.5387829999999996</v>
       </c>
       <c r="BK24" s="1">
-        <v>1128.570000</v>
+        <v>1128.57</v>
       </c>
       <c r="BL24" s="1">
-        <v>-364.273000</v>
+        <v>-364.27300000000002</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>23550.652709</v>
+        <v>23550.652709000002</v>
       </c>
       <c r="BO24" s="1">
-        <v>6.541848</v>
+        <v>6.5418479999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1260.350000</v>
+        <v>1260.3499999999999</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-575.156000</v>
+        <v>-575.15599999999995</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
         <v>23561.452631</v>
@@ -6345,559 +6761,560 @@
         <v>6.544848</v>
       </c>
       <c r="BU24" s="1">
-        <v>1408.240000</v>
+        <v>1408.24</v>
       </c>
       <c r="BV24" s="1">
-        <v>-800.534000</v>
+        <v>-800.53399999999999</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
         <v>23572.543641</v>
       </c>
       <c r="BY24" s="1">
-        <v>6.547929</v>
+        <v>6.5479289999999999</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1570.470000</v>
+        <v>1570.47</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1034.690000</v>
+        <v>-1034.69</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>23585.757558</v>
+        <v>23585.757558000001</v>
       </c>
       <c r="CD24" s="1">
-        <v>6.551599</v>
+        <v>6.5515990000000004</v>
       </c>
       <c r="CE24" s="1">
-        <v>1979.130000</v>
+        <v>1979.13</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1583.640000</v>
+        <v>-1583.64</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
         <v>23412.517419</v>
       </c>
       <c r="B25" s="1">
-        <v>6.503477</v>
+        <v>6.5034770000000002</v>
       </c>
       <c r="C25" s="1">
-        <v>903.374000</v>
+        <v>903.37400000000002</v>
       </c>
       <c r="D25" s="1">
-        <v>-196.660000</v>
+        <v>-196.66</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>23422.971069</v>
+        <v>23422.971068999999</v>
       </c>
       <c r="G25" s="1">
-        <v>6.506381</v>
+        <v>6.5063810000000002</v>
       </c>
       <c r="H25" s="1">
-        <v>920.295000</v>
+        <v>920.29499999999996</v>
       </c>
       <c r="I25" s="1">
-        <v>-166.645000</v>
+        <v>-166.64500000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>23433.802208</v>
+        <v>23433.802208000001</v>
       </c>
       <c r="L25" s="1">
-        <v>6.509390</v>
+        <v>6.5093899999999998</v>
       </c>
       <c r="M25" s="1">
-        <v>941.613000</v>
+        <v>941.61300000000006</v>
       </c>
       <c r="N25" s="1">
-        <v>-120.284000</v>
+        <v>-120.28400000000001</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>23444.060969</v>
+        <v>23444.060968999998</v>
       </c>
       <c r="Q25" s="1">
-        <v>6.512239</v>
+        <v>6.5122390000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>948.154000</v>
+        <v>948.154</v>
       </c>
       <c r="S25" s="1">
-        <v>-104.372000</v>
+        <v>-104.372</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
         <v>23454.199686</v>
       </c>
       <c r="V25" s="1">
-        <v>6.515055</v>
+        <v>6.5150550000000003</v>
       </c>
       <c r="W25" s="1">
-        <v>954.559000</v>
+        <v>954.55899999999997</v>
       </c>
       <c r="X25" s="1">
-        <v>-90.368100</v>
+        <v>-90.368099999999998</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>23464.501594</v>
+        <v>23464.501594000001</v>
       </c>
       <c r="AA25" s="1">
-        <v>6.517917</v>
+        <v>6.5179169999999997</v>
       </c>
       <c r="AB25" s="1">
-        <v>961.739000</v>
+        <v>961.73900000000003</v>
       </c>
       <c r="AC25" s="1">
-        <v>-80.479500</v>
+        <v>-80.479500000000002</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>23474.676025</v>
+        <v>23474.676025000001</v>
       </c>
       <c r="AF25" s="1">
-        <v>6.520743</v>
+        <v>6.5207430000000004</v>
       </c>
       <c r="AG25" s="1">
-        <v>966.658000</v>
+        <v>966.65800000000002</v>
       </c>
       <c r="AH25" s="1">
-        <v>-79.588400</v>
+        <v>-79.588399999999993</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
         <v>23484.850983</v>
       </c>
       <c r="AK25" s="1">
-        <v>6.523570</v>
+        <v>6.5235700000000003</v>
       </c>
       <c r="AL25" s="1">
-        <v>974.444000</v>
+        <v>974.44399999999996</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.299200</v>
+        <v>-87.299199999999999</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>23495.454462</v>
+        <v>23495.454462000002</v>
       </c>
       <c r="AP25" s="1">
-        <v>6.526515</v>
+        <v>6.5265149999999998</v>
       </c>
       <c r="AQ25" s="1">
-        <v>983.508000</v>
+        <v>983.50800000000004</v>
       </c>
       <c r="AR25" s="1">
-        <v>-102.176000</v>
+        <v>-102.176</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>23506.550929</v>
+        <v>23506.550929000001</v>
       </c>
       <c r="AU25" s="1">
-        <v>6.529597</v>
+        <v>6.5295969999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>994.749000</v>
+        <v>994.74900000000002</v>
       </c>
       <c r="AW25" s="1">
-        <v>-123.718000</v>
+        <v>-123.718</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>23517.879590</v>
+        <v>23517.87959</v>
       </c>
       <c r="AZ25" s="1">
-        <v>6.532744</v>
+        <v>6.5327440000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>1004.250000</v>
+        <v>1004.25</v>
       </c>
       <c r="BB25" s="1">
-        <v>-142.475000</v>
+        <v>-142.47499999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>23529.221110</v>
+        <v>23529.221109999999</v>
       </c>
       <c r="BE25" s="1">
         <v>6.535895</v>
       </c>
       <c r="BF25" s="1">
-        <v>1049.160000</v>
+        <v>1049.1600000000001</v>
       </c>
       <c r="BG25" s="1">
-        <v>-227.580000</v>
+        <v>-227.58</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>23540.366674</v>
+        <v>23540.366674000001</v>
       </c>
       <c r="BJ25" s="1">
-        <v>6.538991</v>
+        <v>6.5389910000000002</v>
       </c>
       <c r="BK25" s="1">
-        <v>1128.570000</v>
+        <v>1128.57</v>
       </c>
       <c r="BL25" s="1">
-        <v>-364.312000</v>
+        <v>-364.31200000000001</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>23551.050996</v>
+        <v>23551.050996000002</v>
       </c>
       <c r="BO25" s="1">
-        <v>6.541959</v>
+        <v>6.5419590000000003</v>
       </c>
       <c r="BP25" s="1">
-        <v>1260.360000</v>
+        <v>1260.3599999999999</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-575.191000</v>
+        <v>-575.19100000000003</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>23561.851880</v>
+        <v>23561.851879999998</v>
       </c>
       <c r="BT25" s="1">
-        <v>6.544959</v>
+        <v>6.5449590000000004</v>
       </c>
       <c r="BU25" s="1">
-        <v>1408.180000</v>
+        <v>1408.18</v>
       </c>
       <c r="BV25" s="1">
-        <v>-800.429000</v>
+        <v>-800.42899999999997</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
         <v>23572.970201</v>
       </c>
       <c r="BY25" s="1">
-        <v>6.548047</v>
+        <v>6.5480470000000004</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1570.500000</v>
+        <v>1570.5</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1034.720000</v>
+        <v>-1034.72</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>23586.581910</v>
+        <v>23586.581910000001</v>
       </c>
       <c r="CD25" s="1">
-        <v>6.551828</v>
+        <v>6.5518280000000004</v>
       </c>
       <c r="CE25" s="1">
-        <v>1978.860000</v>
+        <v>1978.86</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1582.510000</v>
+        <v>-1582.51</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>23412.861612</v>
+        <v>23412.861612000001</v>
       </c>
       <c r="B26" s="1">
-        <v>6.503573</v>
+        <v>6.5035730000000003</v>
       </c>
       <c r="C26" s="1">
-        <v>903.384000</v>
+        <v>903.38400000000001</v>
       </c>
       <c r="D26" s="1">
-        <v>-196.697000</v>
+        <v>-196.697</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
         <v>23423.315789</v>
       </c>
       <c r="G26" s="1">
-        <v>6.506477</v>
+        <v>6.5064770000000003</v>
       </c>
       <c r="H26" s="1">
-        <v>920.097000</v>
+        <v>920.09699999999998</v>
       </c>
       <c r="I26" s="1">
-        <v>-166.241000</v>
+        <v>-166.24100000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
         <v>23434.148415</v>
       </c>
       <c r="L26" s="1">
-        <v>6.509486</v>
+        <v>6.5094859999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>941.760000</v>
+        <v>941.76</v>
       </c>
       <c r="N26" s="1">
-        <v>-120.048000</v>
+        <v>-120.048</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>23444.477105</v>
+        <v>23444.477105000002</v>
       </c>
       <c r="Q26" s="1">
-        <v>6.512355</v>
+        <v>6.5123550000000003</v>
       </c>
       <c r="R26" s="1">
-        <v>948.191000</v>
+        <v>948.19100000000003</v>
       </c>
       <c r="S26" s="1">
-        <v>-104.355000</v>
+        <v>-104.355</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>23454.622308</v>
+        <v>23454.622308000002</v>
       </c>
       <c r="V26" s="1">
-        <v>6.515173</v>
+        <v>6.5151729999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>954.509000</v>
+        <v>954.50900000000001</v>
       </c>
       <c r="X26" s="1">
-        <v>-90.412000</v>
+        <v>-90.412000000000006</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
         <v>23464.800678</v>
       </c>
       <c r="AA26" s="1">
-        <v>6.518000</v>
+        <v>6.5179999999999998</v>
       </c>
       <c r="AB26" s="1">
-        <v>961.659000</v>
+        <v>961.65899999999999</v>
       </c>
       <c r="AC26" s="1">
-        <v>-80.606200</v>
+        <v>-80.606200000000001</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>23474.953786</v>
+        <v>23474.953785999998</v>
       </c>
       <c r="AF26" s="1">
-        <v>6.520820</v>
+        <v>6.5208199999999996</v>
       </c>
       <c r="AG26" s="1">
-        <v>966.649000</v>
+        <v>966.649</v>
       </c>
       <c r="AH26" s="1">
-        <v>-79.601800</v>
+        <v>-79.601799999999997</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
         <v>23485.199643</v>
       </c>
       <c r="AK26" s="1">
-        <v>6.523667</v>
+        <v>6.5236669999999997</v>
       </c>
       <c r="AL26" s="1">
-        <v>974.465000</v>
+        <v>974.46500000000003</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.287600</v>
+        <v>-87.287599999999998</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
         <v>23495.816509</v>
       </c>
       <c r="AP26" s="1">
-        <v>6.526616</v>
+        <v>6.5266159999999998</v>
       </c>
       <c r="AQ26" s="1">
-        <v>983.505000</v>
+        <v>983.505</v>
       </c>
       <c r="AR26" s="1">
-        <v>-102.185000</v>
+        <v>-102.185</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>23506.914494</v>
+        <v>23506.914494000001</v>
       </c>
       <c r="AU26" s="1">
-        <v>6.529698</v>
+        <v>6.5296979999999998</v>
       </c>
       <c r="AV26" s="1">
-        <v>994.757000</v>
+        <v>994.75699999999995</v>
       </c>
       <c r="AW26" s="1">
-        <v>-123.704000</v>
+        <v>-123.70399999999999</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>23518.595775</v>
+        <v>23518.595775000002</v>
       </c>
       <c r="AZ26" s="1">
-        <v>6.532943</v>
+        <v>6.5329430000000004</v>
       </c>
       <c r="BA26" s="1">
-        <v>1004.240000</v>
+        <v>1004.24</v>
       </c>
       <c r="BB26" s="1">
-        <v>-142.473000</v>
+        <v>-142.47300000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>23529.641682</v>
+        <v>23529.641682000001</v>
       </c>
       <c r="BE26" s="1">
-        <v>6.536012</v>
+        <v>6.5360120000000004</v>
       </c>
       <c r="BF26" s="1">
-        <v>1049.180000</v>
+        <v>1049.18</v>
       </c>
       <c r="BG26" s="1">
-        <v>-227.576000</v>
+        <v>-227.57599999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>23540.741650</v>
+        <v>23540.74165</v>
       </c>
       <c r="BJ26" s="1">
-        <v>6.539095</v>
+        <v>6.5390949999999997</v>
       </c>
       <c r="BK26" s="1">
-        <v>1128.540000</v>
+        <v>1128.54</v>
       </c>
       <c r="BL26" s="1">
-        <v>-364.304000</v>
+        <v>-364.30399999999997</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>23551.472133</v>
+        <v>23551.472132999999</v>
       </c>
       <c r="BO26" s="1">
-        <v>6.542076</v>
+        <v>6.5420759999999998</v>
       </c>
       <c r="BP26" s="1">
-        <v>1260.330000</v>
+        <v>1260.33</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-575.171000</v>
+        <v>-575.17100000000005</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>23562.270007</v>
+        <v>23562.270006999999</v>
       </c>
       <c r="BT26" s="1">
-        <v>6.545075</v>
+        <v>6.5450749999999998</v>
       </c>
       <c r="BU26" s="1">
-        <v>1408.140000</v>
+        <v>1408.14</v>
       </c>
       <c r="BV26" s="1">
-        <v>-800.487000</v>
+        <v>-800.48699999999997</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>23573.685926</v>
+        <v>23573.685925999998</v>
       </c>
       <c r="BY26" s="1">
-        <v>6.548246</v>
+        <v>6.5482459999999998</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1570.350000</v>
+        <v>1570.35</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1034.760000</v>
+        <v>-1034.76</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>23586.816021</v>
+        <v>23586.816020999999</v>
       </c>
       <c r="CD26" s="1">
-        <v>6.551893</v>
+        <v>6.5518929999999997</v>
       </c>
       <c r="CE26" s="1">
-        <v>1978.840000</v>
+        <v>1978.84</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1582.370000</v>
+        <v>-1582.37</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>